--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.11281977126873E-06</v>
+        <v>-1.11281977126873E-06</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -649,16 +649,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0004203312709097974</v>
+        <v>-0.0004203312709097974</v>
       </c>
       <c r="C4">
-        <v>3.23337081060437E-06</v>
+        <v>-3.23337081060437E-06</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6677.182187102788</v>
+        <v>-6677.182187102788</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3715.204687041987</v>
+        <v>-3715.204687041987</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>376433.009481501</v>
+        <v>-376433.009481501</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6718372.964071271</v>
+        <v>-6718372.964071271</v>
       </c>
       <c r="C4">
-        <v>1093750.790945931</v>
+        <v>-1093750.790945931</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>268154335.7213635</v>
+        <v>-268154335.7213635</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116767254.1413231</v>
+        <v>-116767254.1413231</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>402496.1857895394</v>
+        <v>-402496.1857895394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7157998.276420192</v>
+        <v>-7157998.276420192</v>
       </c>
       <c r="C4">
-        <v>1169479.058614979</v>
+        <v>-1169479.058614979</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>271116105.1008989</v>
+        <v>-271116105.1008989</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116273505.8214616</v>
+        <v>-116273505.8214616</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.867980745206815E-05</v>
+        <v>-1.867980745206815E-05</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.005906348838781798</v>
+        <v>-0.005906348838781798</v>
       </c>
       <c r="C4">
-        <v>5.427540534651564E-05</v>
+        <v>-5.427540534651564E-05</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>14795.29488720856</v>
+        <v>-14795.29488720856</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8232.127058941762</v>
+        <v>-8232.127058941762</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0002336262700404519</v>
+        <v>-0.0002336262700404519</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1029,16 +1029,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.06284195190714177</v>
+        <v>-0.06284195190714177</v>
       </c>
       <c r="C4">
-        <v>0.0006788164459712436</v>
+        <v>-0.0006788164459712436</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>30794.52319715452</v>
+        <v>-30794.52319715452</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>17133.91621066002</v>
+        <v>-17133.91621066002</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002290942924124273</v>
+        <v>-0.002290942924124273</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1124,16 +1124,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.5338070722339813</v>
+        <v>-0.5338070722339813</v>
       </c>
       <c r="C4">
-        <v>0.006656484878210571</v>
+        <v>-0.006656484878210571</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>61227.42076098199</v>
+        <v>-61227.42076098199</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>34064.93595272944</v>
+        <v>-34064.93595272944</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01832686926551903</v>
+        <v>-0.01832686926551903</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1219,16 +1219,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3.764592109082937</v>
+        <v>-3.764592109082937</v>
       </c>
       <c r="C4">
-        <v>0.05324992030410442</v>
+        <v>-0.05324992030410442</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>117643.4372118148</v>
+        <v>-117643.4372118148</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>65441.62116389273</v>
+        <v>-65441.62116389273</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1234080586389146</v>
+        <v>-0.1234080586389146</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1314,16 +1314,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>22.7074574445241</v>
+        <v>-22.7074574445241</v>
       </c>
       <c r="C4">
-        <v>0.3585702059745849</v>
+        <v>-0.3585702059745849</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>219719.4516099411</v>
+        <v>-219719.4516099411</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>122158.4899530898</v>
+        <v>-122158.4899530898</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7171912905329547</v>
+        <v>-0.7171912905329547</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1409,16 +1409,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>119.8907489117425</v>
+        <v>-119.8907489117425</v>
       </c>
       <c r="C4">
-        <v>2.083846319323655</v>
+        <v>-2.083846319323655</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>398738.89430813</v>
+        <v>-398738.89430813</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>221361.6989563337</v>
+        <v>-221361.6989563337</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.670480842135094</v>
+        <v>-3.670480842135094</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>564.3320657591172</v>
+        <v>-564.3320657591172</v>
       </c>
       <c r="C4">
-        <v>10.66482275230551</v>
+        <v>-10.66482275230551</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>701390.3364379051</v>
+        <v>-701390.3364379051</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>387908.0718825551</v>
+        <v>-387908.0718825551</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>16.81681533536907</v>
+        <v>-16.81681533536907</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1599,16 +1599,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2403.298330474134</v>
+        <v>-2403.298330474134</v>
       </c>
       <c r="C4">
-        <v>48.86235959908689</v>
+        <v>-48.86235959908689</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1196019.476201</v>
+        <v>-1196019.476201</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>655454.5607293999</v>
+        <v>-655454.5607293999</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>69.90889800994165</v>
+        <v>-69.90889800994165</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9369.497122916056</v>
+        <v>-9369.497122916056</v>
       </c>
       <c r="C4">
-        <v>203.1248869429707</v>
+        <v>-203.1248869429707</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1988270.072915811</v>
+        <v>-1988270.072915811</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1067178.371186058</v>
+        <v>-1067178.371186058</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>266.5505796531776</v>
+        <v>-266.5505796531776</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1884,16 +1884,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>33737.49366855784</v>
+        <v>-33737.49366855784</v>
       </c>
       <c r="C4">
-        <v>774.4801863267161</v>
+        <v>-774.4801863267161</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>3265650.502312439</v>
+        <v>-3265650.502312439</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1676022.387872362</v>
+        <v>-1676022.387872362</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>939.5126390310344</v>
+        <v>-939.5126390310344</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>112740.634666146</v>
+        <v>-112740.634666146</v>
       </c>
       <c r="C4">
-        <v>2729.815574514306</v>
+        <v>-2729.815574514306</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>5420730.855107742</v>
+        <v>-5420730.855107742</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2544287.407847164</v>
+        <v>-2544287.407847164</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2043,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3070.97631213468</v>
+        <v>-3070.97631213468</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2074,16 +2074,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>348499.3745080646</v>
+        <v>-348499.3745080646</v>
       </c>
       <c r="C4">
-        <v>8922.923032175235</v>
+        <v>-8922.923032175235</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9351315.744038306</v>
+        <v>-9351315.744038306</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3742368.092132013</v>
+        <v>-3742368.092132013</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9246.589093318147</v>
+        <v>-9246.589093318147</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>975307.9847518718</v>
+        <v>-975307.9847518718</v>
       </c>
       <c r="C4">
-        <v>26866.57088946327</v>
+        <v>-26866.57088946327</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>16971792.99242272</v>
+        <v>-16971792.99242272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5346370.7073994</v>
+        <v>-5346370.7073994</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>24918.96757844782</v>
+        <v>-24918.96757844782</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2327113.088246528</v>
+        <v>-2327113.088246528</v>
       </c>
       <c r="C4">
-        <v>72403.69418193308</v>
+        <v>-72403.69418193308</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>30998683.04348751</v>
+        <v>-30998683.04348751</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7434218.633645034</v>
+        <v>-7434218.633645034</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>55889.88068242896</v>
+        <v>-55889.88068242896</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2359,16 +2359,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4217764.771126897</v>
+        <v>-4217764.771126897</v>
       </c>
       <c r="C4">
-        <v>162391.7129012685</v>
+        <v>-162391.7129012685</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>50342860.6905093</v>
+        <v>-50342860.6905093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2382,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10079884.52484072</v>
+        <v>-10079884.52484072</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>90728.50532815</v>
+        <v>-90728.50532815</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2454,16 +2454,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5346403.316659183</v>
+        <v>-5346403.316659183</v>
       </c>
       <c r="C4">
-        <v>263617.6211026011</v>
+        <v>-263617.6211026011</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>65317757.28481049</v>
+        <v>-65317757.28481049</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13345846.92613791</v>
+        <v>-13345846.92613791</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>89412.2970418473</v>
+        <v>-89412.2970418473</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2549,16 +2549,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5618402.989328753</v>
+        <v>-5618402.989328753</v>
       </c>
       <c r="C4">
-        <v>259793.2916258209</v>
+        <v>-259793.2916258209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>74338057.62872626</v>
+        <v>-74338057.62872626</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>17274718.67509378</v>
+        <v>-17274718.67509378</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>54500.67873856903</v>
+        <v>-54500.67873856903</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2644,16 +2644,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6061935.549912537</v>
+        <v>-6061935.549912537</v>
       </c>
       <c r="C4">
-        <v>158355.2955664197</v>
+        <v>-158355.2955664197</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>85016515.45118837</v>
+        <v>-85016515.45118837</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>21880277.29404883</v>
+        <v>-21880277.29404883</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>48255.476636728</v>
+        <v>-48255.476636728</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2739,16 +2739,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6644858.215068342</v>
+        <v>-6644858.215068342</v>
       </c>
       <c r="C4">
-        <v>140209.4513751401</v>
+        <v>-140209.4513751401</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>98583636.54535446</v>
+        <v>-98583636.54535446</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>27139118.44363695</v>
+        <v>-27139118.44363695</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.05254526433966906</v>
+        <v>-0.05254526433966906</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02923636013320883</v>
+        <v>-0.02923636013320883</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2898,7 +2898,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>82210.39976254321</v>
+        <v>-82210.39976254321</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2929,16 +2929,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7295349.497927143</v>
+        <v>-7295349.497927143</v>
       </c>
       <c r="C4">
-        <v>238867.7068679909</v>
+        <v>-238867.7068679909</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>114677714.6194437</v>
+        <v>-114677714.6194437</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>32987083.62506209</v>
+        <v>-32987083.62506209</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>122834.889734973</v>
+        <v>-122834.889734973</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3024,16 +3024,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7923241.120187508</v>
+        <v>-7923241.120187508</v>
       </c>
       <c r="C4">
-        <v>356904.8261427385</v>
+        <v>-356904.8261427385</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>131644420.782093</v>
+        <v>-131644420.782093</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3047,7 +3047,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>39322753.23429316</v>
+        <v>-39322753.23429316</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>173893.5042689031</v>
+        <v>-173893.5042689031</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3119,16 +3119,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8431188.034675952</v>
+        <v>-8431188.034675952</v>
       </c>
       <c r="C4">
-        <v>505258.9784738823</v>
+        <v>-505258.9784738823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>148635385.2167982</v>
+        <v>-148635385.2167982</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3142,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>46019827.39435996</v>
+        <v>-46019827.39435996</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>234330.2277346166</v>
+        <v>-234330.2277346166</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8973043.306489497</v>
+        <v>-8973043.306489497</v>
       </c>
       <c r="C4">
-        <v>680861.8412086212</v>
+        <v>-680861.8412086212</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>166523427.9955721</v>
+        <v>-166523427.9955721</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>52951569.30788335</v>
+        <v>-52951569.30788335</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>269625.4017860388</v>
+        <v>-269625.4017860388</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3309,16 +3309,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8840141.125489665</v>
+        <v>-8840141.125489665</v>
       </c>
       <c r="C4">
-        <v>783414.2836431746</v>
+        <v>-783414.2836431746</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>179127594.7295502</v>
+        <v>-179127594.7295502</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>60030249.43067586</v>
+        <v>-60030249.43067586</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>314521.7720552256</v>
+        <v>-314521.7720552256</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8594333.838329772</v>
+        <v>-8594333.838329772</v>
       </c>
       <c r="C4">
-        <v>913863.6312180916</v>
+        <v>-913863.6312180916</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>191414007.1077119</v>
+        <v>-191414007.1077119</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>67262590.15956321</v>
+        <v>-67262590.15956321</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>484320.4076755798</v>
+        <v>-484320.4076755798</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3499,16 +3499,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8592747.242896536</v>
+        <v>-8592747.242896536</v>
       </c>
       <c r="C4">
-        <v>1407224.700341943</v>
+        <v>-1407224.700341943</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>209094778.6832773</v>
+        <v>-209094778.6832773</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3522,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>74818673.10377096</v>
+        <v>-74818673.10377096</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3563,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>757507.1937945902</v>
+        <v>-757507.1937945902</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8428565.98618944</v>
+        <v>-8428565.98618944</v>
       </c>
       <c r="C4">
-        <v>2200986.819676827</v>
+        <v>-2200986.819676827</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>229404078.953139</v>
+        <v>-229404078.953139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>83106342.42769842</v>
+        <v>-83106342.42769842</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1034378.602881528</v>
+        <v>-1034378.602881528</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3689,16 +3689,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8419129.865640102</v>
+        <v>-8419129.865640102</v>
       </c>
       <c r="C4">
-        <v>3005454.852637773</v>
+        <v>-3005454.852637773</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>253528250.863023</v>
+        <v>-253528250.863023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92836729.44178124</v>
+        <v>-92836729.44178124</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1291207.258274031</v>
+        <v>-1291207.258274031</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8244922.311412376</v>
+        <v>-8244922.311412376</v>
       </c>
       <c r="C4">
-        <v>3751687.350579576</v>
+        <v>-3751687.350579576</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>280441992.9113191</v>
+        <v>-280441992.9113191</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105060390.9927068</v>
+        <v>-105060390.9927068</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.210493821417531</v>
+        <v>-2.210493821417531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3902,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1.229926126499775</v>
+        <v>-1.229926126499775</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1240057.032409812</v>
+        <v>-1240057.032409812</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7865910.251693619</v>
+        <v>-7865910.251693619</v>
       </c>
       <c r="C4">
-        <v>3603067.015521519</v>
+        <v>-3603067.015521519</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>305346968.4819759</v>
+        <v>-305346968.4819759</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>121150471.2581205</v>
+        <v>-121150471.2581205</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1117622.001980129</v>
+        <v>-1117622.001980129</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7326764.169726046</v>
+        <v>-7326764.169726046</v>
       </c>
       <c r="C4">
-        <v>3247324.006808209</v>
+        <v>-3247324.006808209</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>337198045.2574171</v>
+        <v>-337198045.2574171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>142718128.0781966</v>
+        <v>-142718128.0781966</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1092950.5714229</v>
+        <v>-1092950.5714229</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4164,16 +4164,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6712633.183928545</v>
+        <v>-6712633.183928545</v>
       </c>
       <c r="C4">
-        <v>3175639.547671894</v>
+        <v>-3175639.547671894</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>383760536.9139168</v>
+        <v>-383760536.9139168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4187,7 +4187,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>171459306.1949863</v>
+        <v>-171459306.1949863</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>983563.567887347</v>
+        <v>-983563.567887347</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4259,16 +4259,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6933196.386210396</v>
+        <v>-6933196.386210396</v>
       </c>
       <c r="C4">
-        <v>2857808.436630354</v>
+        <v>-2857808.436630354</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>450100867.976267</v>
+        <v>-450100867.976267</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4282,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>208946965.1671603</v>
+        <v>-208946965.1671603</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>848789.7361658283</v>
+        <v>-848789.7361658283</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4354,16 +4354,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8358560.6359403</v>
+        <v>-8358560.6359403</v>
       </c>
       <c r="C4">
-        <v>2466214.23173513</v>
+        <v>-2466214.23173513</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>542549081.6943617</v>
+        <v>-542549081.6943617</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>256396357.2994952</v>
+        <v>-256396357.2994952</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>737775.668711297</v>
+        <v>-737775.668711297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4449,16 +4449,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11836594.91431821</v>
+        <v>-11836594.91431821</v>
       </c>
       <c r="C4">
-        <v>2143655.579793938</v>
+        <v>-2143655.579793938</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>669631849.7563579</v>
+        <v>-669631849.7563579</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4472,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>314436339.6259276</v>
+        <v>-314436339.6259276</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>929562.0123908296</v>
+        <v>-929562.0123908296</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4544,16 +4544,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>18221565.10305817</v>
+        <v>-18221565.10305817</v>
       </c>
       <c r="C4">
-        <v>2700903.376370145</v>
+        <v>-2700903.376370145</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>844088441.2751006</v>
+        <v>-844088441.2751006</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4567,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>382915820.7367338</v>
+        <v>-382915820.7367338</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4608,7 +4608,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1435124.260485362</v>
+        <v>-1435124.260485362</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4639,16 +4639,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>26946149.32545647</v>
+        <v>-26946149.32545647</v>
       </c>
       <c r="C4">
-        <v>4169847.636830843</v>
+        <v>-4169847.636830843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1060107261.959167</v>
+        <v>-1060107261.959167</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>460763881.9920723</v>
+        <v>-460763881.9920723</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1993895.763585281</v>
+        <v>-1993895.763585281</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4734,16 +4734,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>36542711.27256908</v>
+        <v>-36542711.27256908</v>
       </c>
       <c r="C4">
-        <v>5793394.876525341</v>
+        <v>-5793394.876525341</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1296919384.28615</v>
+        <v>-1296919384.28615</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>545913060.9877158</v>
+        <v>-545913060.9877158</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2806577.173897451</v>
+        <v>-2806577.173897451</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -4829,16 +4829,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>50804721.49013367</v>
+        <v>-50804721.49013367</v>
       </c>
       <c r="C4">
-        <v>8154693.999947914</v>
+        <v>-8154693.999947914</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1581638408.802744</v>
+        <v>-1581638408.802744</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>635295142.5534112</v>
+        <v>-635295142.5534112</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>19.54962627494258</v>
+        <v>-19.54962627494258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.87747718898359</v>
+        <v>-10.87747718898359</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3873684.383499886</v>
+        <v>-3873684.383499886</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5019,16 +5019,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>69766226.99399781</v>
+        <v>-69766226.99399781</v>
       </c>
       <c r="C4">
-        <v>11255243.96535717</v>
+        <v>-11255243.96535717</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1907366730.604346</v>
+        <v>-1907366730.604346</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>724926659.4494559</v>
+        <v>-724926659.4494559</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5083,7 +5083,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4417286.682874602</v>
+        <v>-4417286.682874602</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5114,16 +5114,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79506960.66209157</v>
+        <v>-79506960.66209157</v>
       </c>
       <c r="C4">
-        <v>12834716.08901624</v>
+        <v>-12834716.08901624</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2144924433.539755</v>
+        <v>-2144924433.539755</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>810107908.7226939</v>
+        <v>-810107908.7226939</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4454803.220586355</v>
+        <v>-4454803.220586355</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5209,16 +5209,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>79975813.56225874</v>
+        <v>-79975813.56225874</v>
       </c>
       <c r="C4">
-        <v>12943722.84921589</v>
+        <v>-12943722.84921589</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2285218502.570972</v>
+        <v>-2285218502.570972</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>885752939.6604817</v>
+        <v>-885752939.6604817</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4418330.190308928</v>
+        <v>-4418330.190308928</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5304,16 +5304,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>78950068.64845344</v>
+        <v>-78950068.64845344</v>
       </c>
       <c r="C4">
-        <v>12837748.0682872</v>
+        <v>-12837748.0682872</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2386621675.208046</v>
+        <v>-2386621675.208046</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>946843085.1494324</v>
+        <v>-946843085.1494324</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4304981.093526039</v>
+        <v>-4304981.093526039</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5399,16 +5399,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>76629167.90322736</v>
+        <v>-76629167.90322736</v>
       </c>
       <c r="C4">
-        <v>12508404.83552965</v>
+        <v>-12508404.83552965</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2442580496.181271</v>
+        <v>-2442580496.181271</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5422,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>988958596.933805</v>
+        <v>-988958596.933805</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4131553.33053973</v>
+        <v>-4131553.33053973</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5494,16 +5494,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>73272715.54569723</v>
+        <v>-73272715.54569723</v>
       </c>
       <c r="C4">
-        <v>12004499.09888999</v>
+        <v>-12004499.09888999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2449483328.41453</v>
+        <v>-2449483328.41453</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1008806299.391212</v>
+        <v>-1008806299.391212</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5558,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3999514.308744036</v>
+        <v>-3999514.308744036</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5589,16 +5589,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>70594663.51669756</v>
+        <v>-70594663.51669756</v>
       </c>
       <c r="C4">
-        <v>11620851.06354981</v>
+        <v>-11620851.06354981</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2419199907.429399</v>
+        <v>-2419199907.429399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1004642776.440383</v>
+        <v>-1004642776.440383</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3844420.933452066</v>
+        <v>-3844420.933452066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5684,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>67314160.37668839</v>
+        <v>-67314160.37668839</v>
       </c>
       <c r="C4">
-        <v>11170217.09250217</v>
+        <v>-11170217.09250217</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2340858819.375082</v>
+        <v>-2340858819.375082</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>976504100.799594</v>
+        <v>-976504100.799594</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3454856.110883066</v>
+        <v>-3454856.110883066</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5779,16 +5779,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>59480235.56764472</v>
+        <v>-59480235.56764472</v>
       </c>
       <c r="C4">
-        <v>10038310.95760595</v>
+        <v>-10038310.95760595</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2183663649.213801</v>
+        <v>-2183663649.213801</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>926195219.963576</v>
+        <v>-926195219.963576</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2602311.781942395</v>
+        <v>-2602311.781942395</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -5874,16 +5874,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>43080183.125532</v>
+        <v>-43080183.125532</v>
       </c>
       <c r="C4">
-        <v>7561187.510382999</v>
+        <v>-7561187.510382999</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1918703856.76227</v>
+        <v>-1918703856.76227</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>857052120.9182549</v>
+        <v>-857052120.9182549</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>94.25061177621188</v>
+        <v>-94.25061177621188</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>52.44135438832086</v>
+        <v>-52.44135438832086</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1407769.086697244</v>
+        <v>-1407769.086697244</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6064,16 +6064,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>20979586.27255673</v>
+        <v>-20979586.27255673</v>
       </c>
       <c r="C4">
-        <v>4090365.385769945</v>
+        <v>-4090365.385769945</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1577917166.187736</v>
+        <v>-1577917166.187736</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>773544020.8281935</v>
+        <v>-773544020.8281935</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6128,7 +6128,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>743679.6293205353</v>
+        <v>-743679.6293205353</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6159,16 +6159,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9491948.649370216</v>
+        <v>-9491948.649370216</v>
       </c>
       <c r="C4">
-        <v>2160809.924453996</v>
+        <v>-2160809.924453996</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1311076790.028383</v>
+        <v>-1311076790.028383</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>680808065.8843236</v>
+        <v>-680808065.8843236</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>581676.7599233914</v>
+        <v>-581676.7599233914</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6254,16 +6254,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8117557.660507199</v>
+        <v>-8117557.660507199</v>
       </c>
       <c r="C4">
-        <v>1690099.965243194</v>
+        <v>-1690099.965243194</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1123454081.349782</v>
+        <v>-1123454081.349782</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>584194701.2707564</v>
+        <v>-584194701.2707564</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>405029.635980593</v>
+        <v>-405029.635980593</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6349,16 +6349,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7005882.310030884</v>
+        <v>-7005882.310030884</v>
       </c>
       <c r="C4">
-        <v>1176840.164257929</v>
+        <v>-1176840.164257929</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>939696375.8688031</v>
+        <v>-939696375.8688031</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6372,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>488859189.5829946</v>
+        <v>-488859189.5829946</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>226809.9605518837</v>
+        <v>-226809.9605518837</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4900414.185365514</v>
+        <v>-4900414.185365514</v>
       </c>
       <c r="C4">
-        <v>659011.2118215534</v>
+        <v>-659011.2118215534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>759177872.3736604</v>
+        <v>-759177872.3736604</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6467,7 +6467,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>399394649.3594545</v>
+        <v>-399394649.3594545</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>81783.4671562896</v>
+        <v>-81783.4671562896</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6539,16 +6539,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2390836.606113592</v>
+        <v>-2390836.606113592</v>
       </c>
       <c r="C4">
-        <v>237627.2261874744</v>
+        <v>-237627.2261874744</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>593696201.5495499</v>
+        <v>-593696201.5495499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>319495218.7495701</v>
+        <v>-319495218.7495701</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6603,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>28228.62141637032</v>
+        <v>-28228.62141637032</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6634,16 +6634,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1854442.651077511</v>
+        <v>-1854442.651077511</v>
       </c>
       <c r="C4">
-        <v>82020.11041485344</v>
+        <v>-82020.11041485344</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>466573784.2916272</v>
+        <v>-466573784.2916272</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>251670131.7410564</v>
+        <v>-251670131.7410564</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6698,7 +6698,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>66182.16730041227</v>
+        <v>-66182.16730041227</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6729,16 +6729,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3317713.753423617</v>
+        <v>-3317713.753423617</v>
       </c>
       <c r="C4">
-        <v>192296.6265127691</v>
+        <v>-192296.6265127691</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>380077176.1978923</v>
+        <v>-380077176.1978923</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6752,7 +6752,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>197072159.7964708</v>
+        <v>-197072159.7964708</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6793,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>168040.9545611475</v>
+        <v>-168040.9545611475</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6824,16 +6824,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5434534.685062595</v>
+        <v>-5434534.685062595</v>
       </c>
       <c r="C4">
-        <v>488254.0115589852</v>
+        <v>-488254.0115589852</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>323348729.7090754</v>
+        <v>-323348729.7090754</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6847,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>155514424.4953961</v>
+        <v>-155514424.4953961</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6888,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>345151.4220588048</v>
+        <v>-345151.4220588048</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -6919,16 +6919,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7796640.659392156</v>
+        <v>-7796640.659392156</v>
       </c>
       <c r="C4">
-        <v>1002860.087623327</v>
+        <v>-1002860.087623327</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>291354056.6477976</v>
+        <v>-291354056.6477976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>125705647.5798842</v>
+        <v>-125705647.5798842</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.589604956863446E-11</v>
+        <v>-1.589604956863446E-11</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7014,16 +7014,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1.111783199796901E-08</v>
+        <v>-1.111783199796901E-08</v>
       </c>
       <c r="C4">
-        <v>4.618701429122168E-11</v>
+        <v>-4.618701429122168E-11</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>339.0283052779705</v>
+        <v>-339.0283052779705</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7037,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>188.6364784844114</v>
+        <v>-188.6364784844114</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>540699.4177216593</v>
+        <v>-540699.4177216593</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7109,16 +7109,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10003394.90379475</v>
+        <v>-10003394.90379475</v>
       </c>
       <c r="C4">
-        <v>1571037.610680452</v>
+        <v>-1571037.610680452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276204656.9120699</v>
+        <v>-276204656.9120699</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7132,7 +7132,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>105653903.2700934</v>
+        <v>-105653903.2700934</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>684216.2990491848</v>
+        <v>-684216.2990491848</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7204,16 +7204,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>11993264.55469231</v>
+        <v>-11993264.55469231</v>
       </c>
       <c r="C4">
-        <v>1988035.319468762</v>
+        <v>-1988035.319468762</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>271721740.03163</v>
+        <v>-271721740.03163</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>93121458.185967</v>
+        <v>-93121458.185967</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>765208.9728815601</v>
+        <v>-765208.9728815601</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7299,16 +7299,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>13473655.20081821</v>
+        <v>-13473655.20081821</v>
       </c>
       <c r="C4">
-        <v>2223364.843802998</v>
+        <v>-2223364.843802998</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>271723735.5221689</v>
+        <v>-271723735.5221689</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>86001925.85970795</v>
+        <v>-86001925.85970795</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>699163.7179161935</v>
+        <v>-699163.7179161935</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7394,16 +7394,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>12385481.308461</v>
+        <v>-12385481.308461</v>
       </c>
       <c r="C4">
-        <v>2031466.025056749</v>
+        <v>-2031466.025056749</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>255940875.1563143</v>
+        <v>-255940875.1563143</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7417,7 +7417,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>82542113.05527678</v>
+        <v>-82542113.05527678</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>424696.2880995963</v>
+        <v>-424696.2880995963</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7489,16 +7489,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7522271.015940348</v>
+        <v>-7522271.015940348</v>
       </c>
       <c r="C4">
-        <v>1233982.911489493</v>
+        <v>-1233982.911489493</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>211659460.4591112</v>
+        <v>-211659460.4591112</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7512,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81408891.40481395</v>
+        <v>-81408891.40481395</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7553,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>140064.7465576346</v>
+        <v>-140064.7465576346</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7584,16 +7584,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2433997.379721509</v>
+        <v>-2433997.379721509</v>
       </c>
       <c r="C4">
-        <v>406967.3048653899</v>
+        <v>-406967.3048653899</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167966154.950975</v>
+        <v>-167966154.950975</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>81656484.83868907</v>
+        <v>-81656484.83868907</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7648,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>20416.6248915248</v>
+        <v>-20416.6248915248</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7679,16 +7679,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>324600.9435772256</v>
+        <v>-324600.9435772256</v>
       </c>
       <c r="C4">
-        <v>59321.84229621614</v>
+        <v>-59321.84229621614</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>151425411.3656645</v>
+        <v>-151425411.3656645</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7702,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>82656469.94793797</v>
+        <v>-82656469.94793797</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7743,7 +7743,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4592.64696098905</v>
+        <v>-4592.64696098905</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7774,16 +7774,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>65604.07518312259</v>
+        <v>-65604.07518312259</v>
       </c>
       <c r="C4">
-        <v>13344.23687507154</v>
+        <v>-13344.23687507154</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>151606482.2141586</v>
+        <v>-151606482.2141586</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7797,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>84025276.73310132</v>
+        <v>-84025276.73310132</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>11040.05552162052</v>
+        <v>-11040.05552162052</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7869,16 +7869,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>157158.0563873459</v>
+        <v>-157158.0563873459</v>
       </c>
       <c r="C4">
-        <v>32077.60519060653</v>
+        <v>-32077.60519060653</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>155182378.1980187</v>
+        <v>-155182378.1980187</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>85555161.68257809</v>
+        <v>-85555161.68257809</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29386.99753444836</v>
+        <v>-29386.99753444836</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7964,16 +7964,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>420120.4515445815</v>
+        <v>-420120.4515445815</v>
       </c>
       <c r="C4">
-        <v>85385.84817814331</v>
+        <v>-85385.84817814331</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>160409796.4331943</v>
+        <v>-160409796.4331943</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>87145508.92558889</v>
+        <v>-87145508.92558889</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8028,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.218444815348187E-09</v>
+        <v>-1.218444815348187E-09</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8059,16 +8059,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.633022240675809E-07</v>
+        <v>-6.633022240675809E-07</v>
       </c>
       <c r="C4">
-        <v>3.54027130178269E-09</v>
+        <v>-3.54027130178269E-09</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1031.158597295639</v>
+        <v>-1031.158597295639</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8082,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>573.7400761236222</v>
+        <v>-573.7400761236222</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>63548.85589293628</v>
+        <v>-63548.85589293628</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8154,16 +8154,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>916605.6967384262</v>
+        <v>-916605.6967384262</v>
       </c>
       <c r="C4">
-        <v>184645.3675578199</v>
+        <v>-184645.3675578199</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>167734342.4322678</v>
+        <v>-167734342.4322678</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>88738518.32914996</v>
+        <v>-88738518.32914996</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>90583.69912319179</v>
+        <v>-90583.69912319179</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8249,16 +8249,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1345351.453615279</v>
+        <v>-1345351.453615279</v>
       </c>
       <c r="C4">
-        <v>263196.8771794657</v>
+        <v>-263196.8771794657</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>174282770.0194578</v>
+        <v>-174282770.0194578</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>90271615.28376357</v>
+        <v>-90271615.28376357</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>68726.46998034776</v>
+        <v>-68726.46998034776</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8344,16 +8344,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1177958.203737824</v>
+        <v>-1177958.203737824</v>
       </c>
       <c r="C4">
-        <v>199689.2647737397</v>
+        <v>-199689.2647737397</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>175020430.065585</v>
+        <v>-175020430.065585</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8367,7 +8367,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>91658328.10485151</v>
+        <v>-91658328.10485151</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8408,7 +8408,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>77666.70592227115</v>
+        <v>-77666.70592227115</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8439,16 +8439,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1674986.275723395</v>
+        <v>-1674986.275723395</v>
       </c>
       <c r="C4">
-        <v>225665.7064949127</v>
+        <v>-225665.7064949127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>180928136.1109165</v>
+        <v>-180928136.1109165</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8462,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>92800650.99332076</v>
+        <v>-92800650.99332076</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>175622.2056025239</v>
+        <v>-175622.2056025239</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8534,16 +8534,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>3840353.374815279</v>
+        <v>-3840353.374815279</v>
       </c>
       <c r="C4">
-        <v>510281.8335459211</v>
+        <v>-510281.8335459211</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>200631613.2567949</v>
+        <v>-200631613.2567949</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>93624772.18001546</v>
+        <v>-93624772.18001546</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8598,7 +8598,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>312068.3738927328</v>
+        <v>-312068.3738927328</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8629,16 +8629,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6789592.943362529</v>
+        <v>-6789592.943362529</v>
       </c>
       <c r="C4">
-        <v>906735.121992963</v>
+        <v>-906735.121992963</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>226419949.4292308</v>
+        <v>-226419949.4292308</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94123347.5600283</v>
+        <v>-94123347.5600283</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>386040.6951581968</v>
+        <v>-386040.6951581968</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8724,16 +8724,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8211481.804117569</v>
+        <v>-8211481.804117569</v>
       </c>
       <c r="C4">
-        <v>1121666.551634719</v>
+        <v>-1121666.551634719</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>239088152.192413</v>
+        <v>-239088152.192413</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94384197.3716442</v>
+        <v>-94384197.3716442</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>410772.6879294108</v>
+        <v>-410772.6879294108</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8819,16 +8819,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8214587.934447562</v>
+        <v>-8214587.934447562</v>
       </c>
       <c r="C4">
-        <v>1193526.978254701</v>
+        <v>-1193526.978254701</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>240078115.6370034</v>
+        <v>-240078115.6370034</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94589104.75993688</v>
+        <v>-94589104.75993688</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>452753.6862492844</v>
+        <v>-452753.6862492844</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -8914,16 +8914,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>8539830.709998269</v>
+        <v>-8539830.709998269</v>
       </c>
       <c r="C4">
-        <v>1315505.521476262</v>
+        <v>-1315505.521476262</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>244173246.283282</v>
+        <v>-244173246.283282</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8937,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>94977323.95180692</v>
+        <v>-94977323.95180692</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -8978,7 +8978,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>507898.4478901185</v>
+        <v>-507898.4478901185</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9431511.683743216</v>
+        <v>-9431511.683743216</v>
       </c>
       <c r="C4">
-        <v>1475732.242146335</v>
+        <v>-1475732.242146335</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>253483962.5425471</v>
+        <v>-253483962.5425471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9032,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>95783165.5884576</v>
+        <v>-95783165.5884576</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.62009344937217E-08</v>
+        <v>-4.62009344937217E-08</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2.10290468668763E-05</v>
+        <v>-2.10290468668763E-05</v>
       </c>
       <c r="C4">
-        <v>1.342398444667552E-07</v>
+        <v>-1.342398444667552E-07</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2767.200005902752</v>
+        <v>-2767.200005902752</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1539.679215945937</v>
+        <v>-1539.679215945937</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9168,7 +9168,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>557913.9625220244</v>
+        <v>-557913.9625220244</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9199,16 +9199,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10228954.48471763</v>
+        <v>-10228954.48471763</v>
       </c>
       <c r="C4">
-        <v>1621055.599318345</v>
+        <v>-1621055.599318345</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>263023190.8231534</v>
+        <v>-263023190.8231534</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>97169077.53933673</v>
+        <v>-97169077.53933673</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>602469.3850404047</v>
+        <v>-602469.3850404047</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9294,16 +9294,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10619732.93516606</v>
+        <v>-10619732.93516606</v>
       </c>
       <c r="C4">
-        <v>1750514.300848088</v>
+        <v>-1750514.300848088</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>270574113.30704</v>
+        <v>-270574113.30704</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>99178509.69583741</v>
+        <v>-99178509.69583741</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9358,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>630603.1249206397</v>
+        <v>-630603.1249206397</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9389,16 +9389,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10642842.07226572</v>
+        <v>-10642842.07226572</v>
       </c>
       <c r="C4">
-        <v>1832258.726738523</v>
+        <v>-1832258.726738523</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>276000284.2174075</v>
+        <v>-276000284.2174075</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>101724432.0752617</v>
+        <v>-101724432.0752617</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>613962.0657685545</v>
+        <v>-613962.0657685545</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9484,16 +9484,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>10232800.12343889</v>
+        <v>-10232800.12343889</v>
       </c>
       <c r="C4">
-        <v>1783907.03825392</v>
+        <v>-1783907.03825392</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>277789432.4876958</v>
+        <v>-277789432.4876958</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>104614158.8296358</v>
+        <v>-104614158.8296358</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>543049.418072309</v>
+        <v>-543049.418072309</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9579,16 +9579,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>9276538.239870105</v>
+        <v>-9276538.239870105</v>
       </c>
       <c r="C4">
-        <v>1577865.6907837</v>
+        <v>-1577865.6907837</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>274434227.4925404</v>
+        <v>-274434227.4925404</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9602,7 +9602,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>107597476.6360729</v>
+        <v>-107597476.6360729</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>432018.2048006595</v>
+        <v>-432018.2048006595</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9674,16 +9674,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>7635501.086142983</v>
+        <v>-7635501.086142983</v>
       </c>
       <c r="C4">
-        <v>1255257.220546658</v>
+        <v>-1255257.220546658</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>264805146.9058208</v>
+        <v>-264805146.9058208</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>110419507.5106448</v>
+        <v>-110419507.5106448</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>312003.1987706858</v>
+        <v>-312003.1987706858</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9769,16 +9769,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5613997.473699126</v>
+        <v>-5613997.473699126</v>
       </c>
       <c r="C4">
-        <v>906545.7514024638</v>
+        <v>-906545.7514024638</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>251493409.7523204</v>
+        <v>-251493409.7523204</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>112863099.9737142</v>
+        <v>-112863099.9737142</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>231756.4985792394</v>
+        <v>-231756.4985792394</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9864,16 +9864,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4172817.009371918</v>
+        <v>-4172817.009371918</v>
       </c>
       <c r="C4">
-        <v>673383.702393824</v>
+        <v>-673383.702393824</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>242434457.1434241</v>
+        <v>-242434457.1434241</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>114773565.6374322</v>
+        <v>-114773565.6374322</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -9928,7 +9928,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>241214.3252514791</v>
+        <v>-241214.3252514791</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>4322846.111144232</v>
+        <v>-4322846.111144232</v>
       </c>
       <c r="C4">
-        <v>700864.0379192347</v>
+        <v>-700864.0379192347</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>246084678.4321258</v>
+        <v>-246084678.4321258</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9982,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116066085.2723745</v>
+        <v>-116066085.2723745</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>315487.1441524533</v>
+        <v>-315487.1441524533</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -10054,16 +10054,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5643299.520138223</v>
+        <v>-5643299.520138223</v>
       </c>
       <c r="C4">
-        <v>916668.5831439452</v>
+        <v>-916668.5831439452</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>258724611.4385369</v>
+        <v>-258724611.4385369</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -10077,7 +10077,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>116720278.6975065</v>
+        <v>-116720278.6975065</v>
       </c>
       <c r="E5">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-271116105.1008989</v>
+        <v>-271116105.100899</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-30998683.04348751</v>
+        <v>-30998683.0434875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-74338057.62872626</v>
+        <v>-74338057.62872627</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-85016515.45118837</v>
+        <v>-85016515.45118836</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-1296919384.28615</v>
+        <v>-1296919384.286149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2386621675.208046</v>
+        <v>-2386621675.208045</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2449483328.41453</v>
+        <v>-2449483328.414531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-270574113.30704</v>
+        <v>-270574113.3070399</v>
       </c>
     </row>
     <row r="5" spans="1:5">

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -122,16 +122,16 @@
     <t>Sector</t>
   </si>
   <si>
-    <t>Nd</t>
+    <t>Neodymium</t>
   </si>
   <si>
-    <t>Dy</t>
+    <t>Dysprosium</t>
   </si>
   <si>
-    <t>Cu</t>
+    <t>Copper ores and concentrates</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Raw silicon</t>
   </si>
   <si>
     <t>Region</t>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268154335.7213634</v>
+        <v>-268154335.7213635</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-30794.52319715453</v>
+        <v>-30794.52319715452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2191,7 +2191,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1196019.476201001</v>
+        <v>-1196019.476201</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9351315.744038308</v>
+        <v>-9351315.744038306</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74338057.62872627</v>
+        <v>-74338057.62872626</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3764,7 +3764,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85016515.45118836</v>
+        <v>-85016515.45118837</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-844088441.2751007</v>
+        <v>-844088441.2751006</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2449483328.414531</v>
+        <v>-2449483328.41453</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-759177872.3736606</v>
+        <v>-759177872.3736604</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593696201.5495498</v>
+        <v>-593696201.5495499</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11200,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167966154.9509751</v>
+        <v>-167966154.950975</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12630,7 +12630,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200631613.2567948</v>
+        <v>-200631613.2567949</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226419949.4292307</v>
+        <v>-226419949.4292308</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -116,10 +116,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="13">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
     <t>EU27+UK</t>
   </si>
   <si>
     <t>Sector</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Onshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Generators of Offshore Wind Turbines</t>
+  </si>
+  <si>
+    <t>Refinery of Silicon layer in PV panel</t>
+  </si>
+  <si>
+    <t>Refinery of Cu in wires of WT and PV</t>
   </si>
   <si>
     <t>Neodymium</t>
@@ -132,27 +153,6 @@
   </si>
   <si>
     <t>Raw silicon</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Generator Onshore</t>
-  </si>
-  <si>
-    <t>Generator Offshore</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Wires</t>
   </si>
 </sst>
 </file>
@@ -517,55 +517,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -660,55 +655,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -803,55 +793,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -904,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268154335.7213635</v>
+        <v>-268154335.7213634</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -946,55 +931,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1089,55 +1069,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1232,55 +1207,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1333,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-30794.52319715452</v>
+        <v>-30794.52319715453</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1375,55 +1345,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1518,55 +1483,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1661,55 +1621,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1804,55 +1759,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1947,55 +1897,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2090,55 +2035,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2191,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1196019.476201</v>
+        <v>-1196019.476201001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2233,55 +2173,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2376,55 +2311,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2519,55 +2449,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2662,55 +2587,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2805,55 +2725,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -2906,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9351315.744038306</v>
+        <v>-9351315.744038308</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2948,55 +2863,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3091,55 +3001,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3234,55 +3139,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3377,55 +3277,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3520,55 +3415,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3621,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74338057.62872626</v>
+        <v>-74338057.62872627</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3663,55 +3553,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3764,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85016515.45118837</v>
+        <v>-85016515.45118836</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3806,55 +3691,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -3949,55 +3829,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4092,55 +3967,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4235,55 +4105,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4378,55 +4243,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4521,55 +4381,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4664,55 +4519,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4807,55 +4657,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -4950,55 +4795,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5093,55 +4933,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5236,55 +5071,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5379,55 +5209,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5522,55 +5347,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5665,55 +5485,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5808,55 +5623,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -5951,55 +5761,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6094,55 +5899,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6237,55 +6037,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6380,55 +6175,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6523,55 +6313,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6624,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-844088441.2751006</v>
+        <v>-844088441.2751007</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6666,55 +6451,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6809,55 +6589,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -6952,55 +6727,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7095,55 +6865,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7238,55 +7003,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7381,55 +7141,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7524,55 +7279,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7667,55 +7417,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7810,55 +7555,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -7953,55 +7693,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8054,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2449483328.41453</v>
+        <v>-2449483328.414531</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8096,55 +7831,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8239,55 +7969,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8382,55 +8107,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8525,55 +8245,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8668,55 +8383,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8811,55 +8521,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -8954,55 +8659,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9097,55 +8797,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9240,55 +8935,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9383,55 +9073,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9484,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-759177872.3736604</v>
+        <v>-759177872.3736606</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9526,55 +9211,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9627,7 +9307,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593696201.5495499</v>
+        <v>-593696201.5495498</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9669,55 +9349,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9812,55 +9487,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -9955,55 +9625,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10098,55 +9763,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10241,55 +9901,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10384,55 +10039,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10527,55 +10177,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10670,55 +10315,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10813,55 +10453,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -10956,55 +10591,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11099,55 +10729,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11200,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167966154.950975</v>
+        <v>-167966154.9509751</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11242,55 +10867,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11385,55 +11005,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11528,55 +11143,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11671,55 +11281,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11814,55 +11419,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -11957,55 +11557,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12100,55 +11695,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12243,55 +11833,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12386,55 +11971,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12529,55 +12109,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12630,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200631613.2567949</v>
+        <v>-200631613.2567948</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12672,55 +12247,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12773,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226419949.4292308</v>
+        <v>-226419949.4292307</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12815,55 +12385,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -12958,55 +12523,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13101,55 +12661,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13244,55 +12799,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13387,55 +12937,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13530,55 +13075,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13673,55 +13213,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13816,55 +13351,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -13959,55 +13489,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14102,55 +13627,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14245,55 +13765,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14388,55 +13903,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14531,55 +14041,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14674,55 +14179,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -14817,55 +14317,50 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="C1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.11281977126873E-06</v>
+        <v>-1.11281977126873E-12</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.0004203312709097974</v>
+        <v>-4.203312709097977E-10</v>
       </c>
       <c r="E7">
-        <v>-3.23337081060437E-06</v>
+        <v>-3.233370810604369E-12</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-6677.182187102788</v>
+        <v>-0.006677182187102789</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3715.204687041987</v>
+        <v>-0.003715204687041988</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-376433.009481501</v>
+        <v>-0.3764330094815017</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6718372.964071271</v>
+        <v>-6.718372964071266</v>
       </c>
       <c r="E7">
-        <v>-1093750.790945931</v>
+        <v>-1.093750790945933</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268154335.7213634</v>
+        <v>-268.1543357213633</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116767254.1413231</v>
+        <v>-116.7672541413231</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-402496.1857895394</v>
+        <v>-0.402496185789538</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7157998.276420192</v>
+        <v>-7.157998276420193</v>
       </c>
       <c r="E7">
-        <v>-1169479.058614979</v>
+        <v>-1.169479058614975</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271116105.1008989</v>
+        <v>-271.1161051008987</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116273505.8214616</v>
+        <v>-116.2735058214615</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.867980745206815E-05</v>
+        <v>-1.867980745206814E-11</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.005906348838781798</v>
+        <v>-5.906348838781803E-09</v>
       </c>
       <c r="E7">
-        <v>-5.427540534651564E-05</v>
+        <v>-5.427540534651564E-11</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-14795.29488720856</v>
+        <v>-0.01479529488720857</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-8232.127058941762</v>
+        <v>-0.008232127058941765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0002336262700404519</v>
+        <v>-2.33626270040452E-10</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.06284195190714177</v>
+        <v>-6.284195190714183E-08</v>
       </c>
       <c r="E7">
-        <v>-0.0006788164459712436</v>
+        <v>-6.788164459712435E-10</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-30794.52319715453</v>
+        <v>-0.03079452319715452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-17133.91621066002</v>
+        <v>-0.01713391621066001</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.002290942924124273</v>
+        <v>-2.290942924124273E-09</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.5338070722339813</v>
+        <v>-5.338070722339815E-07</v>
       </c>
       <c r="E7">
-        <v>-0.006656484878210571</v>
+        <v>-6.65648487821057E-09</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-61227.42076098199</v>
+        <v>-0.06122742076098198</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-34064.93595272944</v>
+        <v>-0.03406493595272944</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01832686926551903</v>
+        <v>-1.832686926551903E-08</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.764592109082937</v>
+        <v>-3.76459210908294E-06</v>
       </c>
       <c r="E7">
-        <v>-0.05324992030410442</v>
+        <v>-5.324992030410443E-08</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-117643.4372118148</v>
+        <v>-0.1176434372118148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-65441.62116389273</v>
+        <v>-0.06544162116389271</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1234080586389146</v>
+        <v>-1.234080586389145E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1708,16 +1708,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-22.7074574445241</v>
+        <v>-2.27074574445241E-05</v>
       </c>
       <c r="E7">
-        <v>-0.3585702059745849</v>
+        <v>-3.585702059745848E-07</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-219719.4516099411</v>
+        <v>-0.2197194516099411</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-122158.4899530898</v>
+        <v>-0.1221584899530899</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7171912905329547</v>
+        <v>-7.171912905329547E-07</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1846,16 +1846,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-119.8907489117425</v>
+        <v>-0.0001198907489117425</v>
       </c>
       <c r="E7">
-        <v>-2.083846319323655</v>
+        <v>-2.083846319323655E-06</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-398738.89430813</v>
+        <v>-0.39873889430813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-221361.6989563337</v>
+        <v>-0.2213616989563337</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.670480842135094</v>
+        <v>-3.670480842135094E-06</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1984,16 +1984,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-564.3320657591172</v>
+        <v>-0.0005643320657591174</v>
       </c>
       <c r="E7">
-        <v>-10.66482275230551</v>
+        <v>-1.066482275230551E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-701390.3364379051</v>
+        <v>-0.701390336437905</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-387908.0718825551</v>
+        <v>-0.3879080718825552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-16.81681533536907</v>
+        <v>-1.681681533536907E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2122,16 +2122,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2403.298330474134</v>
+        <v>-0.002403298330474134</v>
       </c>
       <c r="E7">
-        <v>-48.86235959908689</v>
+        <v>-4.886235959908688E-05</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1196019.476201001</v>
+        <v>-1.196019476201</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-655454.5607293999</v>
+        <v>-0.6554545607293998</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-69.90889800994165</v>
+        <v>-6.990889800994164E-05</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9369.497122916056</v>
+        <v>-0.009369497122916057</v>
       </c>
       <c r="E7">
-        <v>-203.1248869429707</v>
+        <v>-0.0002031248869429707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1988270.072915811</v>
+        <v>-1.988270072915811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1067178.371186058</v>
+        <v>-1.067178371186058</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-266.5505796531776</v>
+        <v>-0.0002665505796531775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2536,16 +2536,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-33737.49366855784</v>
+        <v>-0.03373749366855783</v>
       </c>
       <c r="E7">
-        <v>-774.4801863267161</v>
+        <v>-0.0007744801863267158</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3265650.502312439</v>
+        <v>-3.265650502312439</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1676022.387872362</v>
+        <v>-1.676022387872362</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-939.5126390310344</v>
+        <v>-0.0009395126390310345</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2674,16 +2674,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-112740.634666146</v>
+        <v>-0.112740634666146</v>
       </c>
       <c r="E7">
-        <v>-2729.815574514306</v>
+        <v>-0.002729815574514306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5420730.855107742</v>
+        <v>-5.420730855107745</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2544287.407847164</v>
+        <v>-2.544287407847165</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3070.97631213468</v>
+        <v>-0.003070976312134679</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-348499.3745080646</v>
+        <v>-0.3484993745080647</v>
       </c>
       <c r="E7">
-        <v>-8922.923032175235</v>
+        <v>-0.008922923032175236</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9351315.744038308</v>
+        <v>-9.351315744038308</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3742368.092132013</v>
+        <v>-3.742368092132014</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-9246.589093318147</v>
+        <v>-0.009246589093318148</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-975307.9847518718</v>
+        <v>-0.9753079847518721</v>
       </c>
       <c r="E7">
-        <v>-26866.57088946327</v>
+        <v>-0.02686657088946326</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16971792.99242272</v>
+        <v>-16.97179299242272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5346370.7073994</v>
+        <v>-5.3463707073994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-24918.96757844782</v>
+        <v>-0.02491896757844781</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2327113.088246528</v>
+        <v>-2.327113088246528</v>
       </c>
       <c r="E7">
-        <v>-72403.69418193308</v>
+        <v>-0.07240369418193307</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-30998683.04348751</v>
+        <v>-30.9986830434875</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7434218.633645034</v>
+        <v>-7.434218633645035</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-55889.88068242896</v>
+        <v>-0.05588988068242894</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4217764.771126897</v>
+        <v>-4.217764771126896</v>
       </c>
       <c r="E7">
-        <v>-162391.7129012685</v>
+        <v>-0.1623917129012684</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-50342860.6905093</v>
+        <v>-50.34286069050928</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10079884.52484072</v>
+        <v>-10.07988452484071</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-90728.50532815</v>
+        <v>-0.09072850532814999</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5346403.316659183</v>
+        <v>-5.346403316659181</v>
       </c>
       <c r="E7">
-        <v>-263617.6211026011</v>
+        <v>-0.2636176211026011</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-65317757.28481049</v>
+        <v>-65.31775728481047</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13345846.92613791</v>
+        <v>-13.34584692613791</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-89412.2970418473</v>
+        <v>-0.08941229704184728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5618402.989328753</v>
+        <v>-5.618402989328752</v>
       </c>
       <c r="E7">
-        <v>-259793.2916258209</v>
+        <v>-0.2597932916258209</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74338057.62872627</v>
+        <v>-74.33805762872628</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-17274718.67509378</v>
+        <v>-17.27471867509379</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-54500.67873856903</v>
+        <v>-0.05450067873856905</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6061935.549912537</v>
+        <v>-6.061935549912536</v>
       </c>
       <c r="E7">
-        <v>-158355.2955664197</v>
+        <v>-0.1583552955664197</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85016515.45118836</v>
+        <v>-85.01651545118837</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21880277.29404883</v>
+        <v>-21.88027729404883</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-48255.476636728</v>
+        <v>-0.04825547663672801</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6644858.215068342</v>
+        <v>-6.644858215068341</v>
       </c>
       <c r="E7">
-        <v>-140209.4513751401</v>
+        <v>-0.1402094513751401</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98583636.54535446</v>
+        <v>-98.58363654535447</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27139118.44363695</v>
+        <v>-27.13911844363695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3925,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.05254526433966906</v>
+        <v>-5.254526433966904E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3941,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.02923636013320883</v>
+        <v>-2.923636013320882E-08</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-82210.39976254321</v>
+        <v>-0.08221039976254318</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7295349.497927143</v>
+        <v>-7.295349497927145</v>
       </c>
       <c r="E7">
-        <v>-238867.7068679909</v>
+        <v>-0.2388677068679908</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-114677714.6194437</v>
+        <v>-114.6777146194438</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-32987083.62506209</v>
+        <v>-32.98708362506211</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-122834.889734973</v>
+        <v>-0.122834889734973</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7923241.120187508</v>
+        <v>-7.923241120187511</v>
       </c>
       <c r="E7">
-        <v>-356904.8261427385</v>
+        <v>-0.3569048261427384</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131644420.782093</v>
+        <v>-131.6444207820931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-39322753.23429316</v>
+        <v>-39.32275323429315</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-173893.5042689031</v>
+        <v>-0.1738935042689031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8431188.034675952</v>
+        <v>-8.431188034675955</v>
       </c>
       <c r="E7">
-        <v>-505258.9784738823</v>
+        <v>-0.5052589784738823</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-148635385.2167982</v>
+        <v>-148.6353852167983</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-46019827.39435996</v>
+        <v>-46.01982739435994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-234330.2277346166</v>
+        <v>-0.2343302277346166</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8973043.306489497</v>
+        <v>-8.973043306489496</v>
       </c>
       <c r="E7">
-        <v>-680861.8412086212</v>
+        <v>-0.6808618412086211</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-166523427.9955721</v>
+        <v>-166.5234279955721</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52951569.30788335</v>
+        <v>-52.95156930788335</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-269625.4017860388</v>
+        <v>-0.2696254017860388</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8840141.125489665</v>
+        <v>-8.840141125489673</v>
       </c>
       <c r="E7">
-        <v>-783414.2836431746</v>
+        <v>-0.7834142836431747</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-179127594.7295502</v>
+        <v>-179.1275947295502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60030249.43067586</v>
+        <v>-60.03024943067586</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-314521.7720552256</v>
+        <v>-0.3145217720552257</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8594333.838329772</v>
+        <v>-8.594333838329778</v>
       </c>
       <c r="E7">
-        <v>-913863.6312180916</v>
+        <v>-0.9138636312180922</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191414007.1077119</v>
+        <v>-191.414007107712</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-67262590.15956321</v>
+        <v>-67.26259015956322</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-484320.4076755798</v>
+        <v>-0.4843204076755797</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8592747.242896536</v>
+        <v>-8.592747242896538</v>
       </c>
       <c r="E7">
-        <v>-1407224.700341943</v>
+        <v>-1.407224700341943</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-209094778.6832773</v>
+        <v>-209.0947786832774</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74818673.10377096</v>
+        <v>-74.81867310377099</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-757507.1937945902</v>
+        <v>-0.7575071937945903</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8428565.98618944</v>
+        <v>-8.428565986189437</v>
       </c>
       <c r="E7">
-        <v>-2200986.819676827</v>
+        <v>-2.200986819676827</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-229404078.953139</v>
+        <v>-229.404078953139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83106342.42769842</v>
+        <v>-83.10634242769844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1034378.602881528</v>
+        <v>-1.034378602881528</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8419129.865640102</v>
+        <v>-8.419129865640107</v>
       </c>
       <c r="E7">
-        <v>-3005454.852637773</v>
+        <v>-3.005454852637774</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-253528250.863023</v>
+        <v>-253.528250863023</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92836729.44178124</v>
+        <v>-92.83672944178124</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1291207.258274031</v>
+        <v>-1.291207258274031</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8244922.311412376</v>
+        <v>-8.244922311412383</v>
       </c>
       <c r="E7">
-        <v>-3751687.350579576</v>
+        <v>-3.751687350579574</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280441992.9113191</v>
+        <v>-280.4419929113192</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105060390.9927068</v>
+        <v>-105.0603909927068</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2.210493821417531</v>
+        <v>-2.21049382141753E-06</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.229926126499775</v>
+        <v>-1.229926126499775E-06</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1240057.032409812</v>
+        <v>-1.240057032409811</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7865910.251693619</v>
+        <v>-7.865910251693619</v>
       </c>
       <c r="E7">
-        <v>-3603067.015521519</v>
+        <v>-3.603067015521517</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-305346968.4819759</v>
+        <v>-305.3469684819759</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121150471.2581205</v>
+        <v>-121.1504712581206</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1117622.001980129</v>
+        <v>-1.117622001980128</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7326764.169726046</v>
+        <v>-7.326764169726042</v>
       </c>
       <c r="E7">
-        <v>-3247324.006808209</v>
+        <v>-3.247324006808208</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337198045.2574171</v>
+        <v>-337.1980452574172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142718128.0781966</v>
+        <v>-142.7181280781967</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1092950.5714229</v>
+        <v>-1.092950571422899</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6712633.183928545</v>
+        <v>-6.712633183928543</v>
       </c>
       <c r="E7">
-        <v>-3175639.547671894</v>
+        <v>-3.175639547671893</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-383760536.9139168</v>
+        <v>-383.760536913917</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-171459306.1949863</v>
+        <v>-171.4593061949863</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-983563.567887347</v>
+        <v>-0.983563567887347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6933196.386210396</v>
+        <v>-6.93319638621039</v>
       </c>
       <c r="E7">
-        <v>-2857808.436630354</v>
+        <v>-2.857808436630355</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450100867.976267</v>
+        <v>-450.1008679762672</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-208946965.1671603</v>
+        <v>-208.9469651671604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-848789.7361658283</v>
+        <v>-0.8487897361658283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8358560.6359403</v>
+        <v>-8.35856063594029</v>
       </c>
       <c r="E7">
-        <v>-2466214.23173513</v>
+        <v>-2.46621423173513</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-542549081.6943617</v>
+        <v>-542.5490816943615</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-256396357.2994952</v>
+        <v>-256.3963572994952</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-737775.668711297</v>
+        <v>-0.7377756687112966</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11836594.91431821</v>
+        <v>-11.8365949143182</v>
       </c>
       <c r="E7">
-        <v>-2143655.579793938</v>
+        <v>-2.143655579793938</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-669631849.7563579</v>
+        <v>-669.631849756358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-314436339.6259276</v>
+        <v>-314.4363396259276</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-929562.0123908296</v>
+        <v>-0.9295620123908294</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-18221565.10305817</v>
+        <v>-18.22156510305818</v>
       </c>
       <c r="E7">
-        <v>-2700903.376370145</v>
+        <v>-2.700903376370145</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-844088441.2751007</v>
+        <v>-844.0884412751003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-382915820.7367338</v>
+        <v>-382.9158207367337</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1435124.260485362</v>
+        <v>-1.435124260485362</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26946149.32545647</v>
+        <v>-26.94614932545649</v>
       </c>
       <c r="E7">
-        <v>-4169847.636830843</v>
+        <v>-4.169847636830842</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1060107261.959167</v>
+        <v>-1060.107261959168</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-460763881.9920723</v>
+        <v>-460.7638819920725</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1993895.763585281</v>
+        <v>-1.993895763585281</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-36542711.27256908</v>
+        <v>-36.54271127256907</v>
       </c>
       <c r="E7">
-        <v>-5793394.876525341</v>
+        <v>-5.793394876525338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1296919384.28615</v>
+        <v>-1296.91938428615</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-545913060.9877158</v>
+        <v>-545.913060987716</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2806577.173897451</v>
+        <v>-2.80657717389745</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-50804721.49013367</v>
+        <v>-50.80472149013364</v>
       </c>
       <c r="E7">
-        <v>-8154693.999947914</v>
+        <v>-8.154693999947913</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1581638408.802744</v>
+        <v>-1581.638408802743</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-635295142.5534112</v>
+        <v>-635.2951425534111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-19.54962627494258</v>
+        <v>-1.954962627494258E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10.87747718898359</v>
+        <v>-1.087747718898359E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3873684.383499886</v>
+        <v>-3.873684383499886</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69766226.99399781</v>
+        <v>-69.76622699399783</v>
       </c>
       <c r="E7">
-        <v>-11255243.96535717</v>
+        <v>-11.25524396535717</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1907366730.604346</v>
+        <v>-1907.366730604347</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-724926659.4494559</v>
+        <v>-724.9266594494562</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4417286.682874602</v>
+        <v>-4.417286682874604</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79506960.66209157</v>
+        <v>-79.50696066209159</v>
       </c>
       <c r="E7">
-        <v>-12834716.08901624</v>
+        <v>-12.83471608901625</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2144924433.539755</v>
+        <v>-2144.924433539756</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-810107908.7226939</v>
+        <v>-810.1079087226942</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4454803.220586355</v>
+        <v>-4.454803220586354</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79975813.56225874</v>
+        <v>-79.97581356225874</v>
       </c>
       <c r="E7">
-        <v>-12943722.84921589</v>
+        <v>-12.94372284921589</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2285218502.570972</v>
+        <v>-2285.218502570974</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-885752939.6604817</v>
+        <v>-885.7529396604822</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4418330.190308928</v>
+        <v>-4.418330190308927</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78950068.64845344</v>
+        <v>-78.95006864845347</v>
       </c>
       <c r="E7">
-        <v>-12837748.0682872</v>
+        <v>-12.8377480682872</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2386621675.208046</v>
+        <v>-2386.621675208046</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-946843085.1494324</v>
+        <v>-946.8430851494329</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4304981.093526039</v>
+        <v>-4.304981093526041</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76629167.90322736</v>
+        <v>-76.62916790322738</v>
       </c>
       <c r="E7">
-        <v>-12508404.83552965</v>
+        <v>-12.50840483552965</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2442580496.181271</v>
+        <v>-2442.580496181272</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-988958596.933805</v>
+        <v>-988.9585969338054</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4131553.33053973</v>
+        <v>-4.131553330539733</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73272715.54569723</v>
+        <v>-73.27271554569728</v>
       </c>
       <c r="E7">
-        <v>-12004499.09888999</v>
+        <v>-12.00449909889</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2449483328.414531</v>
+        <v>-2449.483328414531</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1008806299.391212</v>
+        <v>-1008.806299391212</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3999514.308744036</v>
+        <v>-3.999514308744037</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-70594663.51669756</v>
+        <v>-70.59466351669758</v>
       </c>
       <c r="E7">
-        <v>-11620851.06354981</v>
+        <v>-11.62085106354982</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2419199907.429399</v>
+        <v>-2419.1999074294</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1004642776.440383</v>
+        <v>-1004.642776440384</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3844420.933452066</v>
+        <v>-3.844420933452066</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-67314160.37668839</v>
+        <v>-67.31416037668838</v>
       </c>
       <c r="E7">
-        <v>-11170217.09250217</v>
+        <v>-11.17021709250217</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2340858819.375082</v>
+        <v>-2340.858819375082</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-976504100.799594</v>
+        <v>-976.5041007995941</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3454856.110883066</v>
+        <v>-3.454856110883067</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-59480235.56764472</v>
+        <v>-59.48023556764469</v>
       </c>
       <c r="E7">
-        <v>-10038310.95760595</v>
+        <v>-10.03831095760595</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2183663649.213801</v>
+        <v>-2183.663649213803</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-926195219.963576</v>
+        <v>-926.1952199635767</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2602311.781942395</v>
+        <v>-2.602311781942396</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-43080183.125532</v>
+        <v>-43.08018312553197</v>
       </c>
       <c r="E7">
-        <v>-7561187.510382999</v>
+        <v>-7.561187510383002</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1918703856.76227</v>
+        <v>-1918.703856762271</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-857052120.9182549</v>
+        <v>-857.0521209182552</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-94.25061177621188</v>
+        <v>-9.425061177621187E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52.44135438832086</v>
+        <v>-5.244135438832086E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1407769.086697244</v>
+        <v>-1.407769086697243</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20979586.27255673</v>
+        <v>-20.9795862725567</v>
       </c>
       <c r="E7">
-        <v>-4090365.385769945</v>
+        <v>-4.090365385769943</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1577917166.187736</v>
+        <v>-1577.917166187737</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-773544020.8281935</v>
+        <v>-773.5440208281939</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-743679.6293205353</v>
+        <v>-0.7436796293205344</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9491948.649370216</v>
+        <v>-9.491948649370244</v>
       </c>
       <c r="E7">
-        <v>-2160809.924453996</v>
+        <v>-2.160809924453993</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1311076790.028383</v>
+        <v>-1311.076790028384</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-680808065.8843236</v>
+        <v>-680.8080658843238</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-581676.7599233914</v>
+        <v>-0.5816767599233932</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8117557.660507199</v>
+        <v>-8.117557660507229</v>
       </c>
       <c r="E7">
-        <v>-1690099.965243194</v>
+        <v>-1.690099965243199</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1123454081.349782</v>
+        <v>-1123.454081349782</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-584194701.2707564</v>
+        <v>-584.1947012707564</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-405029.635980593</v>
+        <v>-0.4050296359805958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7005882.310030884</v>
+        <v>-7.005882310030857</v>
       </c>
       <c r="E7">
-        <v>-1176840.164257929</v>
+        <v>-1.176840164257937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-939696375.8688031</v>
+        <v>-939.6963758688032</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-488859189.5829946</v>
+        <v>-488.8591895829948</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-226809.9605518837</v>
+        <v>-0.2268099605518868</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4900414.185365514</v>
+        <v>-4.900414185365429</v>
       </c>
       <c r="E7">
-        <v>-659011.2118215534</v>
+        <v>-0.6590112118215625</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-759177872.3736606</v>
+        <v>-759.1778723736602</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-399394649.3594545</v>
+        <v>-399.3946493594547</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-81783.4671562896</v>
+        <v>-0.08178346715629162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2390836.606113592</v>
+        <v>-2.390836606113514</v>
       </c>
       <c r="E7">
-        <v>-237627.2261874744</v>
+        <v>-0.2376272261874803</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593696201.5495498</v>
+        <v>-593.6962015495491</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-319495218.7495701</v>
+        <v>-319.4952187495701</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-28228.62141637032</v>
+        <v>-0.02822862141637156</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1854442.651077511</v>
+        <v>-1.854442651077449</v>
       </c>
       <c r="E7">
-        <v>-82020.11041485344</v>
+        <v>-0.08202011041485706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-466573784.2916272</v>
+        <v>-466.5737842916268</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-251670131.7410564</v>
+        <v>-251.6701317410564</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-66182.16730041227</v>
+        <v>-0.06618216730041521</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3317713.753423617</v>
+        <v>-3.317713753423556</v>
       </c>
       <c r="E7">
-        <v>-192296.6265127691</v>
+        <v>-0.1922966265127776</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-380077176.1978923</v>
+        <v>-380.0771761978918</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-197072159.7964708</v>
+        <v>-197.0721597964707</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-168040.9545611475</v>
+        <v>-0.1680409545611535</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5434534.685062595</v>
+        <v>-5.434534685062586</v>
       </c>
       <c r="E7">
-        <v>-488254.0115589852</v>
+        <v>-0.4882540115590026</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323348729.7090754</v>
+        <v>-323.3487297090753</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-155514424.4953961</v>
+        <v>-155.5144244953961</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-345151.4220588048</v>
+        <v>-0.3451514220588121</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7796640.659392156</v>
+        <v>-7.796640659392176</v>
       </c>
       <c r="E7">
-        <v>-1002860.087623327</v>
+        <v>-1.002860087623348</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291354056.6477976</v>
+        <v>-291.3540566477978</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125705647.5798842</v>
+        <v>-125.7056475798841</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.589604956863446E-11</v>
+        <v>-1.589604956863446E-17</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9988,16 +9988,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.111783199796901E-08</v>
+        <v>-1.111783199796902E-14</v>
       </c>
       <c r="E7">
-        <v>-4.618701429122168E-11</v>
+        <v>-4.618701429122165E-17</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-339.0283052779705</v>
+        <v>-0.0003390283052779706</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-188.6364784844114</v>
+        <v>-0.0001886364784844115</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-540699.4177216593</v>
+        <v>-0.5406994177216607</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10003394.90379475</v>
+        <v>-10.00339490379474</v>
       </c>
       <c r="E7">
-        <v>-1571037.610680452</v>
+        <v>-1.571037610680456</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276204656.9120699</v>
+        <v>-276.2046569120699</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105653903.2700934</v>
+        <v>-105.6539032700934</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-684216.2990491848</v>
+        <v>-0.6842162990491819</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11993264.55469231</v>
+        <v>-11.99326455469232</v>
       </c>
       <c r="E7">
-        <v>-1988035.319468762</v>
+        <v>-1.988035319468754</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271721740.03163</v>
+        <v>-271.72174003163</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93121458.185967</v>
+        <v>-93.12145818596696</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-765208.9728815601</v>
+        <v>-0.7652089728815599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13473655.20081821</v>
+        <v>-13.47365520081823</v>
       </c>
       <c r="E7">
-        <v>-2223364.843802998</v>
+        <v>-2.223364843802997</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271723735.5221689</v>
+        <v>-271.7237355221691</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86001925.85970795</v>
+        <v>-86.001925859708</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-699163.7179161935</v>
+        <v>-0.6991637179161942</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12385481.308461</v>
+        <v>-12.38548130846105</v>
       </c>
       <c r="E7">
-        <v>-2031466.025056749</v>
+        <v>-2.031466025056751</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255940875.1563143</v>
+        <v>-255.9408751563147</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82542113.05527678</v>
+        <v>-82.54211305527679</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-424696.2880995963</v>
+        <v>-0.4246962880995936</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7522271.015940348</v>
+        <v>-7.522271015940394</v>
       </c>
       <c r="E7">
-        <v>-1233982.911489493</v>
+        <v>-1.233982911489485</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-211659460.4591112</v>
+        <v>-211.6594604591115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81408891.40481395</v>
+        <v>-81.40889140481401</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-140064.7465576346</v>
+        <v>-0.1400647465576283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2433997.379721509</v>
+        <v>-2.433997379721544</v>
       </c>
       <c r="E7">
-        <v>-406967.3048653899</v>
+        <v>-0.4069673048653715</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167966154.9509751</v>
+        <v>-167.9661549509752</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81656484.83868907</v>
+        <v>-81.6564848386891</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-20416.6248915248</v>
+        <v>-0.0204166248915209</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-324600.9435772256</v>
+        <v>-0.3246009435772426</v>
       </c>
       <c r="E7">
-        <v>-59321.84229621614</v>
+        <v>-0.0593218422962048</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151425411.3656645</v>
+        <v>-151.4254113656645</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82656469.94793797</v>
+        <v>-82.65646994793799</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4592.64696098905</v>
+        <v>-0.004592646960988624</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-65604.07518312259</v>
+        <v>-0.06560407518312347</v>
       </c>
       <c r="E7">
-        <v>-13344.23687507154</v>
+        <v>-0.0133442368750703</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151606482.2141586</v>
+        <v>-151.6064822141586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-84025276.73310132</v>
+        <v>-84.02527673310135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-11040.05552162052</v>
+        <v>-0.01104005552162019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-157158.0563873459</v>
+        <v>-0.1571580563873445</v>
       </c>
       <c r="E7">
-        <v>-32077.60519060653</v>
+        <v>-0.03207760519060558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155182378.1980187</v>
+        <v>-155.1823781980188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-85555161.68257809</v>
+        <v>-85.55516168257812</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-29386.99753444836</v>
+        <v>-0.02938699753444751</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-420120.4515445815</v>
+        <v>-0.4201204515445778</v>
       </c>
       <c r="E7">
-        <v>-85385.84817814331</v>
+        <v>-0.08538584817814081</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160409796.4331943</v>
+        <v>-160.4097964331941</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87145508.92558889</v>
+        <v>-87.14550892558881</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11471,7 +11471,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.218444815348187E-09</v>
+        <v>-1.218444815348187E-15</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11506,16 +11506,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.633022240675809E-07</v>
+        <v>-6.633022240675813E-13</v>
       </c>
       <c r="E7">
-        <v>-3.54027130178269E-09</v>
+        <v>-3.540271301782688E-15</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1031.158597295639</v>
+        <v>-0.001031158597295639</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-573.7400761236222</v>
+        <v>-0.0005737400761236222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-63548.85589293628</v>
+        <v>-0.06354885589293448</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-916605.6967384262</v>
+        <v>-0.9166056967384181</v>
       </c>
       <c r="E7">
-        <v>-184645.3675578199</v>
+        <v>-0.1846453675578147</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167734342.4322678</v>
+        <v>-167.7343424322677</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-88738518.32914996</v>
+        <v>-88.73851832914994</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-90583.69912319179</v>
+        <v>-0.09058369912318956</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1345351.453615279</v>
+        <v>-1.345351453615268</v>
       </c>
       <c r="E7">
-        <v>-263196.8771794657</v>
+        <v>-0.2631968771794592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-174282770.0194578</v>
+        <v>-174.2827700194574</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90271615.28376357</v>
+        <v>-90.27161528376347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-68726.46998034776</v>
+        <v>-0.06872646998034734</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1177958.203737824</v>
+        <v>-1.177958203737818</v>
       </c>
       <c r="E7">
-        <v>-199689.2647737397</v>
+        <v>-0.1996892647737386</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-175020430.065585</v>
+        <v>-175.0204300655848</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91658328.10485151</v>
+        <v>-91.65832810485145</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-77666.70592227115</v>
+        <v>-0.07766670592227323</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1674986.275723395</v>
+        <v>-1.674986275723392</v>
       </c>
       <c r="E7">
-        <v>-225665.7064949127</v>
+        <v>-0.2256657064949188</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-180928136.1109165</v>
+        <v>-180.9281361109165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92800650.99332076</v>
+        <v>-92.80065099332076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-175622.2056025239</v>
+        <v>-0.1756222056025283</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3840353.374815279</v>
+        <v>-3.840353374815272</v>
       </c>
       <c r="E7">
-        <v>-510281.8335459211</v>
+        <v>-0.5102818335459338</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200631613.2567948</v>
+        <v>-200.6316132567949</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93624772.18001546</v>
+        <v>-93.62477218001547</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-312068.3738927328</v>
+        <v>-0.3120683738927375</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6789592.943362529</v>
+        <v>-6.789592943362505</v>
       </c>
       <c r="E7">
-        <v>-906735.121992963</v>
+        <v>-0.9067351219929767</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226419949.4292307</v>
+        <v>-226.4199494292308</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94123347.5600283</v>
+        <v>-94.12334756002836</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-386040.6951581968</v>
+        <v>-0.3860406951581965</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8211481.804117569</v>
+        <v>-8.211481804117515</v>
       </c>
       <c r="E7">
-        <v>-1121666.551634719</v>
+        <v>-1.121666551634718</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239088152.192413</v>
+        <v>-239.0881521924126</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94384197.3716442</v>
+        <v>-94.38419737164421</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-410772.6879294108</v>
+        <v>-0.4107726879294087</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8214587.934447562</v>
+        <v>-8.214587934447518</v>
       </c>
       <c r="E7">
-        <v>-1193526.978254701</v>
+        <v>-1.193526978254695</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-240078115.6370034</v>
+        <v>-240.078115637003</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94589104.75993688</v>
+        <v>-94.58910475993692</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-452753.6862492844</v>
+        <v>-0.4527536862492833</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8539830.709998269</v>
+        <v>-8.539830709998315</v>
       </c>
       <c r="E7">
-        <v>-1315505.521476262</v>
+        <v>-1.315505521476259</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244173246.283282</v>
+        <v>-244.1732462832823</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94977323.95180692</v>
+        <v>-94.97732395180697</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-507898.4478901185</v>
+        <v>-0.5078984478901182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9431511.683743216</v>
+        <v>-9.431511683743301</v>
       </c>
       <c r="E7">
-        <v>-1475732.242146335</v>
+        <v>-1.475732242146333</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-253483962.5425471</v>
+        <v>-253.4839625425479</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95783165.5884576</v>
+        <v>-95.78316558845773</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.62009344937217E-08</v>
+        <v>-4.62009344937217E-14</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13024,16 +13024,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.10290468668763E-05</v>
+        <v>-2.102904686687632E-11</v>
       </c>
       <c r="E7">
-        <v>-1.342398444667552E-07</v>
+        <v>-1.342398444667551E-13</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2767.200005902752</v>
+        <v>-0.002767200005902752</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1539.679215945937</v>
+        <v>-0.001539679215945937</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-557913.9625220244</v>
+        <v>-0.5579139625220261</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10228954.48471763</v>
+        <v>-10.22895448471764</v>
       </c>
       <c r="E7">
-        <v>-1621055.599318345</v>
+        <v>-1.621055599318349</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-263023190.8231534</v>
+        <v>-263.0231908231538</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97169077.53933673</v>
+        <v>-97.16907753933685</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-602469.3850404047</v>
+        <v>-0.6024693850404067</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10619732.93516606</v>
+        <v>-10.61973293516606</v>
       </c>
       <c r="E7">
-        <v>-1750514.300848088</v>
+        <v>-1.750514300848093</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270574113.30704</v>
+        <v>-270.5741133070402</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99178509.69583741</v>
+        <v>-99.1785096958375</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-630603.1249206397</v>
+        <v>-0.6306031249206391</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10642842.07226572</v>
+        <v>-10.64284207226575</v>
       </c>
       <c r="E7">
-        <v>-1832258.726738523</v>
+        <v>-1.832258726738521</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276000284.2174075</v>
+        <v>-276.000284217408</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101724432.0752617</v>
+        <v>-101.7244320752618</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-613962.0657685545</v>
+        <v>-0.6139620657685515</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10232800.12343889</v>
+        <v>-10.23280012343893</v>
       </c>
       <c r="E7">
-        <v>-1783907.03825392</v>
+        <v>-1.783907038253911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277789432.4876958</v>
+        <v>-277.7894324876961</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104614158.8296358</v>
+        <v>-104.6141588296359</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-543049.418072309</v>
+        <v>-0.5430494180723063</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9276538.239870105</v>
+        <v>-9.276538239870105</v>
       </c>
       <c r="E7">
-        <v>-1577865.6907837</v>
+        <v>-1.577865690783692</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274434227.4925404</v>
+        <v>-274.4342274925407</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107597476.6360729</v>
+        <v>-107.5974766360731</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-432018.2048006595</v>
+        <v>-0.4320182048006614</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7635501.086142983</v>
+        <v>-7.635501086142962</v>
       </c>
       <c r="E7">
-        <v>-1255257.220546658</v>
+        <v>-1.255257220546663</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264805146.9058208</v>
+        <v>-264.8051469058209</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110419507.5106448</v>
+        <v>-110.419507510645</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-312003.1987706858</v>
+        <v>-0.3120031987706879</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5613997.473699126</v>
+        <v>-5.613997473699067</v>
       </c>
       <c r="E7">
-        <v>-906545.7514024638</v>
+        <v>-0.90654575140247</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251493409.7523204</v>
+        <v>-251.4934097523201</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112863099.9737142</v>
+        <v>-112.8630999737143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-231756.4985792394</v>
+        <v>-0.2317564985792371</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4172817.009371918</v>
+        <v>-4.172817009371907</v>
       </c>
       <c r="E7">
-        <v>-673383.702393824</v>
+        <v>-0.6733837023938174</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-242434457.1434241</v>
+        <v>-242.4344571434242</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114773565.6374322</v>
+        <v>-114.7735656374324</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-241214.3252514791</v>
+        <v>-0.2412143252514775</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4322846.111144232</v>
+        <v>-4.32284611114429</v>
       </c>
       <c r="E7">
-        <v>-700864.0379192347</v>
+        <v>-0.7008640379192302</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-246084678.4321258</v>
+        <v>-246.0846784321263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116066085.2723745</v>
+        <v>-116.0660852723745</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-315487.1441524533</v>
+        <v>-0.3154871441524538</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5643299.520138223</v>
+        <v>-5.64329952013826</v>
       </c>
       <c r="E7">
-        <v>-916668.5831439452</v>
+        <v>-0.9166685831439467</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258724611.4385369</v>
+        <v>-258.7246114385373</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116720278.6975065</v>
+        <v>-116.7202786975066</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.006677182187102789</v>
+        <v>-0.006677184554546484</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.003715204687041988</v>
+        <v>-0.003715206004295547</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3764330094815017</v>
+        <v>-4.711446538069537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -880,16 +880,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.718372964071266</v>
+        <v>-88.24260712000063</v>
       </c>
       <c r="E7">
-        <v>-1.093750790945933</v>
+        <v>-13.68941683570995</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-268.1543357213633</v>
+        <v>-2403.48900552148</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.7672541413231</v>
+        <v>-914.4321393386178</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.402496185789538</v>
+        <v>-4.59153974505749</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.157998276420193</v>
+        <v>-84.97688899227998</v>
       </c>
       <c r="E7">
-        <v>-1.169479058614975</v>
+        <v>-13.34101978658464</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271.1161051008987</v>
+        <v>-2422.34114520558</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.2735058214615</v>
+        <v>-939.8377480516075</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.01479529488720857</v>
+        <v>-0.01479530607300135</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.008232127058941765</v>
+        <v>-0.008232133282754135</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.03079452319715452</v>
+        <v>-0.0307945677833795</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.01713391621066001</v>
+        <v>-0.01713394101858413</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.06122742076098198</v>
+        <v>-0.06122757648841393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.03406493595272944</v>
+        <v>-0.03406502259999138</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.1176434372118148</v>
+        <v>-0.1176439260079462</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1595,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.06544162116389271</v>
+        <v>-0.06544189313168869</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.2197194516099411</v>
+        <v>-0.21972085537252</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.1221584899530899</v>
+        <v>-0.1221592710112654</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.39873889430813</v>
+        <v>-0.3987426340871412</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.2213616989563337</v>
+        <v>-0.2213637797818347</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.701390336437905</v>
+        <v>-0.7013996823402986</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.3879080718825552</v>
+        <v>-0.3879132719737828</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.196019476201</v>
+        <v>-1.196041588110208</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.6554545607293998</v>
+        <v>-0.6554668638693486</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.988270072915811</v>
+        <v>-1.988319981539639</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2285,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.067178371186058</v>
+        <v>-1.067206140510627</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-3.265650502312439</v>
+        <v>-3.26575863287582</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.676022387872362</v>
+        <v>-1.676082552078065</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0009395126390310345</v>
+        <v>-0.0009395126390310347</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2677,13 +2677,13 @@
         <v>-0.112740634666146</v>
       </c>
       <c r="E7">
-        <v>-0.002729815574514306</v>
+        <v>-0.002729815574514307</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-5.420730855107745</v>
+        <v>-5.420956814441982</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-2.544287407847165</v>
+        <v>-2.544413132373518</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.003070976312134679</v>
+        <v>-0.003070976312134681</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2812,16 +2812,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.3484993745080647</v>
+        <v>-0.348499374508065</v>
       </c>
       <c r="E7">
-        <v>-0.008922923032175236</v>
+        <v>-0.008922923032175239</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9.351315744038308</v>
+        <v>-9.351772810406709</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-3.742368092132014</v>
+        <v>-3.742622405382109</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2915,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.009246589093318148</v>
+        <v>-0.009246589093318158</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.9753079847518721</v>
+        <v>-0.9753079847518749</v>
       </c>
       <c r="E7">
-        <v>-0.02686657088946326</v>
+        <v>-0.02686657088946329</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-16.97179299242272</v>
+        <v>-16.97269026572749</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.3463707073994</v>
+        <v>-5.346869953255427</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02491896757844781</v>
+        <v>-0.02491896757844791</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.327113088246528</v>
+        <v>-2.327113088246553</v>
       </c>
       <c r="E7">
-        <v>-0.07240369418193307</v>
+        <v>-0.07240369418193335</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-30.9986830434875</v>
+        <v>-31.00039574389099</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-7.434218633645035</v>
+        <v>-7.435171585855298</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05588988068242894</v>
+        <v>-0.05588988068242987</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3226,16 +3226,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.217764771126896</v>
+        <v>-4.217764771127103</v>
       </c>
       <c r="E7">
-        <v>-0.1623917129012684</v>
+        <v>-0.1623917129012711</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-50.34286069050928</v>
+        <v>-50.34604384181007</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-10.07988452484071</v>
+        <v>-10.08165564082828</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09072850532814999</v>
+        <v>-0.09072850532815728</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3364,16 +3364,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.346403316659181</v>
+        <v>-5.346403316660759</v>
       </c>
       <c r="E7">
-        <v>-0.2636176211026011</v>
+        <v>-0.2636176211026223</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-65.31775728481047</v>
+        <v>-65.32352415565541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-13.34584692613791</v>
+        <v>-13.34905563228184</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08941229704184728</v>
+        <v>-0.08941229704190103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.618402989328752</v>
+        <v>-5.618402989339699</v>
       </c>
       <c r="E7">
-        <v>-0.2597932916258209</v>
+        <v>-0.2597932916259771</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-74.33805762872628</v>
+        <v>-74.34825192414367</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-17.27471867509379</v>
+        <v>-17.28039081498104</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.05450067873856905</v>
+        <v>-0.0545006787389332</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.061935549912536</v>
+        <v>-6.0619355499827</v>
       </c>
       <c r="E7">
-        <v>-0.1583552955664197</v>
+        <v>-0.1583552955674778</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85.01651545118837</v>
+        <v>-85.03411531090586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3665,7 +3665,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-21.88027729404883</v>
+        <v>-21.89006991433893</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.04825547663672801</v>
+        <v>-0.04825547663901226</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3778,16 +3778,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.644858215068341</v>
+        <v>-6.644858215486177</v>
       </c>
       <c r="E7">
-        <v>-0.1402094513751401</v>
+        <v>-0.1402094513817771</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98.58363654535447</v>
+        <v>-98.61333867168926</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-27.13911844363695</v>
+        <v>-27.1556448039498</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08221039976254318</v>
+        <v>-0.08221039977588311</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4054,16 +4054,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.295349497927145</v>
+        <v>-7.295349500251669</v>
       </c>
       <c r="E7">
-        <v>-0.2388677068679908</v>
+        <v>-0.2388677069067509</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-114.6777146194438</v>
+        <v>-114.7267577980882</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-32.98708362506211</v>
+        <v>-33.01437140340032</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4157,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.122834889734973</v>
+        <v>-0.1228348898078769</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.923241120187511</v>
+        <v>-7.923241132326804</v>
       </c>
       <c r="E7">
-        <v>-0.3569048261427384</v>
+        <v>-0.3569048263545657</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-131.6444207820931</v>
+        <v>-131.7237187826939</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-39.32275323429315</v>
+        <v>-39.36687485558609</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1738935042689031</v>
+        <v>-0.1738935046434288</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4330,16 +4330,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.431188034675955</v>
+        <v>-8.431188094432772</v>
       </c>
       <c r="E7">
-        <v>-0.5052589784738823</v>
+        <v>-0.5052589795620912</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-148.6353852167983</v>
+        <v>-148.7610482675612</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-46.01982739435994</v>
+        <v>-46.08974648602923</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2343302277346166</v>
+        <v>-0.2343302295502221</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4468,16 +4468,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.973043306489496</v>
+        <v>-8.973043584731624</v>
       </c>
       <c r="E7">
-        <v>-0.6808618412086211</v>
+        <v>-0.6808618464839818</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-166.5234279955721</v>
+        <v>-166.7187580817046</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-52.95156930788335</v>
+        <v>-53.0602504608716</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2696254017860388</v>
+        <v>-0.2696254101182</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4606,16 +4606,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.840141125489673</v>
+        <v>-8.840142354290762</v>
       </c>
       <c r="E7">
-        <v>-0.7834142836431747</v>
+        <v>-0.7834143078528151</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-179.1275947295502</v>
+        <v>-179.4256413428226</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-60.03024943067586</v>
+        <v>-60.19607844235727</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3145217720552257</v>
+        <v>-0.3145218083426883</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4744,16 +4744,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.594333838329778</v>
+        <v>-8.594338995284685</v>
       </c>
       <c r="E7">
-        <v>-0.9138636312180922</v>
+        <v>-0.9138637366536937</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-191.414007107712</v>
+        <v>-191.8607669045789</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4769,7 +4769,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-67.26259015956322</v>
+        <v>-67.51114730691519</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4843204076755797</v>
+        <v>-0.4843205578982256</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4882,16 +4882,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.592747242896538</v>
+        <v>-8.592767831404029</v>
       </c>
       <c r="E7">
-        <v>-1.407224700341943</v>
+        <v>-1.407225136823691</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-209.0947786832774</v>
+        <v>-209.7531213310787</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4907,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-74.81867310377099</v>
+        <v>-75.18489127000797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4985,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7575071937945903</v>
+        <v>-0.7575077854276062</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5020,16 +5020,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.428565986189437</v>
+        <v>-8.428644202809599</v>
       </c>
       <c r="E7">
-        <v>-2.200986819676827</v>
+        <v>-2.200988538705347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-229.404078953139</v>
+        <v>-230.3585087870455</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-83.10634242769844</v>
+        <v>-83.63706383731076</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.034378602881528</v>
+        <v>-1.034380819687249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5158,16 +5158,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.419129865640107</v>
+        <v>-8.419412509842056</v>
       </c>
       <c r="E7">
-        <v>-3.005454852637774</v>
+        <v>-3.005461293712148</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-253.528250863023</v>
+        <v>-254.8907521409919</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.83672944178124</v>
+        <v>-93.59364867900022</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.291207258274031</v>
+        <v>-1.291215155714424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5296,16 +5296,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.244922311412383</v>
+        <v>-8.245892872461614</v>
       </c>
       <c r="E7">
-        <v>-3.751687350579574</v>
+        <v>-3.751710297110454</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-280.4419929113192</v>
+        <v>-282.3596782793865</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.0603909927068</v>
+        <v>-106.1233382415807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5537,7 +5537,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.240057032409811</v>
+        <v>-1.24008375024569</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5572,16 +5572,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.865910251693619</v>
+        <v>-7.869072490151074</v>
       </c>
       <c r="E7">
-        <v>-3.603067015521517</v>
+        <v>-3.603144645945495</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-305.3469684819759</v>
+        <v>-308.0135915842977</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5597,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-121.1504712581206</v>
+        <v>-122.6209501800854</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.117622001980128</v>
+        <v>-1.117707686073162</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5710,16 +5710,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.326764169726042</v>
+        <v>-7.336519385679248</v>
       </c>
       <c r="E7">
-        <v>-3.247324006808208</v>
+        <v>-3.24757296755864</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-337.1980452574172</v>
+        <v>-340.8747637655812</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-142.7181280781967</v>
+        <v>-144.7229812747626</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.092950571422899</v>
+        <v>-1.093210410730835</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5848,16 +5848,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.712633183928543</v>
+        <v>-6.741041037105685</v>
       </c>
       <c r="E7">
-        <v>-3.175639547671893</v>
+        <v>-3.176394527818203</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-383.760536913917</v>
+        <v>-388.8184457641685</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-171.4593061949863</v>
+        <v>-174.1543438748957</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -5951,7 +5951,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.983563567887347</v>
+        <v>-0.9843060173332454</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5986,16 +5986,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.93319638621039</v>
+        <v>-7.010937181997781</v>
       </c>
       <c r="E7">
-        <v>-2.857808436630355</v>
+        <v>-2.859965672176215</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-450.1008679762672</v>
+        <v>-457.1102195014997</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-208.9469651671604</v>
+        <v>-212.5203677322687</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6089,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.8487897361658283</v>
+        <v>-0.8507779453488717</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6124,16 +6124,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.35856063594029</v>
+        <v>-8.557116029992599</v>
       </c>
       <c r="E7">
-        <v>-2.46621423173513</v>
+        <v>-2.471991103879034</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-542.5490816943615</v>
+        <v>-552.4533393958641</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-256.3963572994952</v>
+        <v>-261.0716600483524</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6227,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7377756687112966</v>
+        <v>-0.742724394186462</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6262,16 +6262,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.8365949143182</v>
+        <v>-12.30491881753816</v>
       </c>
       <c r="E7">
-        <v>-2.143655579793938</v>
+        <v>-2.158034426139245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-669.631849756358</v>
+        <v>-684.0324693459867</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-314.4363396259276</v>
+        <v>-320.4748382650646</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.9295620123908294</v>
+        <v>-0.9408639922478318</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6400,16 +6400,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-18.22156510305818</v>
+        <v>-19.22568314949005</v>
       </c>
       <c r="E7">
-        <v>-2.700903376370145</v>
+        <v>-2.733742019891016</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-844.0884412751003</v>
+        <v>-865.5554460857031</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-382.9158207367337</v>
+        <v>-390.6183096518736</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6503,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.435124260485362</v>
+        <v>-1.458344194484227</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6538,16 +6538,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-26.94614932545649</v>
+        <v>-28.86071649188885</v>
       </c>
       <c r="E7">
-        <v>-4.169847636830842</v>
+        <v>-4.237314677545347</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1060.107261959168</v>
+        <v>-1092.131397532115</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6563,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-460.7638819920725</v>
+        <v>-470.471760352807</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6641,7 +6641,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.993895763585281</v>
+        <v>-2.03558934397554</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6676,16 +6676,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-36.54271127256907</v>
+        <v>-39.70619536301069</v>
       </c>
       <c r="E7">
-        <v>-5.793394876525338</v>
+        <v>-5.914538308107034</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1296.91938428615</v>
+        <v>-1342.824720501631</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-545.913060987716</v>
+        <v>-558.0090171918525</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.80657717389745</v>
+        <v>-2.869551447773305</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6814,16 +6814,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-50.80472149013364</v>
+        <v>-55.24864466551946</v>
       </c>
       <c r="E7">
-        <v>-8.154693999947913</v>
+        <v>-8.337669881781006</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1581.638408802743</v>
+        <v>-1642.486911623894</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-635.2951425534111</v>
+        <v>-650.2038511582844</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -6961,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1.954962627494258E-05</v>
+        <v>-1.954962627642734E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6977,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1.087747718898359E-05</v>
+        <v>-1.087747718980972E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7055,7 +7055,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.873684383499886</v>
+        <v>-3.950617285826022</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7090,16 +7090,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-69.76622699399783</v>
+        <v>-75.13445605940809</v>
       </c>
       <c r="E7">
-        <v>-11.25524396535717</v>
+        <v>-11.4787775573896</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1907.366730604347</v>
+        <v>-1981.215483687962</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-724.9266594494562</v>
+        <v>-743.1161841650536</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.417286682874604</v>
+        <v>-4.493155250812051</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7228,16 +7228,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.50696066209159</v>
+        <v>-85.43257901177417</v>
       </c>
       <c r="E7">
-        <v>-12.83471608901625</v>
+        <v>-13.05515718769624</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2144.924433539756</v>
+        <v>-2229.648598008513</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7253,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-810.1079087226942</v>
+        <v>-832.0927779940888</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.454803220586354</v>
+        <v>-4.52427528336669</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7366,16 +7366,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-79.97581356225874</v>
+        <v>-86.39475993847699</v>
       </c>
       <c r="E7">
-        <v>-12.94372284921589</v>
+        <v>-13.1455784827569</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2285.218502570974</v>
+        <v>-2381.239004400617</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-885.7529396604822</v>
+        <v>-912.1001146338682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.418330190308927</v>
+        <v>-4.496824987870401</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7504,16 +7504,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-78.95006864845347</v>
+        <v>-85.93650508520437</v>
       </c>
       <c r="E7">
-        <v>-12.8377480682872</v>
+        <v>-13.06581984933599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2386.621675208046</v>
+        <v>-2495.986453006819</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7529,7 +7529,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-946.8430851494329</v>
+        <v>-978.182228912485</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.304981093526041</v>
+        <v>-4.414652068019898</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7642,16 +7642,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-76.62916790322738</v>
+        <v>-84.20450681356556</v>
       </c>
       <c r="E7">
-        <v>-12.50840483552965</v>
+        <v>-12.82706104280991</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2442.580496181272</v>
+        <v>-2567.255996930048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-988.9585969338054</v>
+        <v>-1025.998124188561</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-4.131553330539733</v>
+        <v>-4.286013159964307</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7780,16 +7780,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-73.27271554569728</v>
+        <v>-81.38378601237075</v>
       </c>
       <c r="E7">
-        <v>-12.00449909889</v>
+        <v>-12.4532922608797</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2449.483328414531</v>
+        <v>-2590.866457118517</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7805,7 +7805,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1008.806299391212</v>
+        <v>-1052.356575651041</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -7883,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.999514308744037</v>
+        <v>-4.206447165056129</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -7918,16 +7918,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-70.59466351669758</v>
+        <v>-79.11995189203013</v>
       </c>
       <c r="E7">
-        <v>-11.62085106354982</v>
+        <v>-12.22210804570397</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2419.1999074294</v>
+        <v>-2578.283341927784</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-1004.642776440384</v>
+        <v>-1055.647483371527</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.844420933452066</v>
+        <v>-4.111016292966715</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8056,16 +8056,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-67.31416037668838</v>
+        <v>-76.06247667557651</v>
       </c>
       <c r="E7">
-        <v>-11.17021709250217</v>
+        <v>-11.9448273896525</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2340.858819375082</v>
+        <v>-2518.424554729019</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-976.5041007995941</v>
+        <v>-1036.080136389544</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-3.454856110883067</v>
+        <v>-3.796316930749047</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8194,16 +8194,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-59.48023556764469</v>
+        <v>-68.21295852159444</v>
       </c>
       <c r="E7">
-        <v>-10.03831095760595</v>
+        <v>-11.03044775857323</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2183.663649213803</v>
+        <v>-2380.737837371305</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-926.1952199635767</v>
+        <v>-995.680527276567</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-2.602311781942396</v>
+        <v>-3.061278669868127</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8332,16 +8332,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-43.08018312553197</v>
+        <v>-51.68375438137771</v>
       </c>
       <c r="E7">
-        <v>-7.561187510383002</v>
+        <v>-8.894745896716358</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1918.703856762271</v>
+        <v>-2138.386629529854</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8357,7 +8357,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-857.0521209182552</v>
+        <v>-938.0595416666951</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-9.425061177621187E-05</v>
+        <v>-9.425061189988174E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-5.244135438832086E-05</v>
+        <v>-5.244135445713119E-05</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-1.407769086697243</v>
+        <v>-2.050943148065668</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8608,16 +8608,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-20.9795862725567</v>
+        <v>-29.47501216228124</v>
       </c>
       <c r="E7">
-        <v>-4.090365385769943</v>
+        <v>-5.959149792606592</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1577.917166187737</v>
+        <v>-1825.471780097643</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8633,7 +8633,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-773.5440208281939</v>
+        <v>-868.0177042392678</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7436796293205344</v>
+        <v>-1.613171828716626</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8746,16 +8746,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.491948649370244</v>
+        <v>-17.87388607157035</v>
       </c>
       <c r="E7">
-        <v>-2.160809924453993</v>
+        <v>-4.687176520520345</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1311.076790028384</v>
+        <v>-1591.670203135183</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-680.8080658843238</v>
+        <v>-791.0772448987146</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5816767599233932</v>
+        <v>-1.652949100937157</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -8884,16 +8884,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.117557660507229</v>
+        <v>-16.34362838014719</v>
       </c>
       <c r="E7">
-        <v>-1.690099965243199</v>
+        <v>-4.802751993066716</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1123.454081349782</v>
+        <v>-1441.139718758709</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -8909,7 +8909,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-584.1947012707564</v>
+        <v>-713.0179584383279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4050296359805958</v>
+        <v>-1.58442564594394</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9022,16 +9022,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.005882310030857</v>
+        <v>-14.98879985245594</v>
       </c>
       <c r="E7">
-        <v>-1.176840164257937</v>
+        <v>-4.603652601649339</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-939.6963758688032</v>
+        <v>-1297.344248442524</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9047,7 +9047,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-488.8591895829948</v>
+        <v>-639.4509166069216</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2268099605518868</v>
+        <v>-1.385569530898959</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9160,16 +9160,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.900414185365429</v>
+        <v>-12.56733044825037</v>
       </c>
       <c r="E7">
-        <v>-0.6590112118215625</v>
+        <v>-4.02586312082122</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-759.1778723736602</v>
+        <v>-1159.731842621542</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-399.3946493594547</v>
+        <v>-575.4245431003022</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.08178346715629162</v>
+        <v>-1.143628618357302</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9298,16 +9298,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.390836606113514</v>
+        <v>-9.879809683035244</v>
       </c>
       <c r="E7">
-        <v>-0.2376272261874803</v>
+        <v>-3.322887935889617</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-593.6962015495491</v>
+        <v>-1043.667393054958</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-319.4952187495701</v>
+        <v>-525.0516505818695</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02822862141637156</v>
+        <v>-0.9868012057299537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9436,16 +9436,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.854442651077449</v>
+        <v>-9.747205722518126</v>
       </c>
       <c r="E7">
-        <v>-0.08202011041485706</v>
+        <v>-2.867215605666952</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-466.5737842916268</v>
+        <v>-978.0214772262233</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9461,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-251.6701317410564</v>
+        <v>-491.1793415172862</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06618216730041521</v>
+        <v>-0.9480508852964508</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9574,16 +9574,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.317713753423556</v>
+        <v>-12.76708649946343</v>
       </c>
       <c r="E7">
-        <v>-0.1922966265127776</v>
+        <v>-2.754624008872795</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-380.0771761978918</v>
+        <v>-970.4107893626799</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9599,7 +9599,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-197.0721597964707</v>
+        <v>-475.1676386179618</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1680409545611535</v>
+        <v>-1.045872836303019</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9712,16 +9712,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.434534685062586</v>
+        <v>-18.22346502992787</v>
       </c>
       <c r="E7">
-        <v>-0.4882540115590026</v>
+        <v>-3.038852101495917</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-323.3487297090753</v>
+        <v>-1015.751310162489</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-155.5144244953961</v>
+        <v>-476.8545985915732</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3451514220588121</v>
+        <v>-1.358992479063599</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -9850,16 +9850,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.796640659392176</v>
+        <v>-26.29695514540049</v>
       </c>
       <c r="E7">
-        <v>-1.002860087623348</v>
+        <v>-3.948641754113832</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-291.3540566477978</v>
+        <v>-1114.580601021838</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-125.7056475798841</v>
+        <v>-494.7429088247898</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -9997,7 +9997,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.0003390283052779706</v>
+        <v>-0.0003390283089025202</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10013,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0001886364784844115</v>
+        <v>-0.0001886364805011229</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5406994177216607</v>
+        <v>-1.887703672217881</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.00339490379474</v>
+        <v>-36.82755407124082</v>
       </c>
       <c r="E7">
-        <v>-1.571037610680456</v>
+        <v>-5.48484679227184</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.2046569120699</v>
+        <v>-1261.297561062607</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-105.6539032700934</v>
+        <v>-526.363791195415</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6842162990491819</v>
+        <v>-2.563509494305841</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10264,16 +10264,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-11.99326455469232</v>
+        <v>-49.48010181023308</v>
       </c>
       <c r="E7">
-        <v>-1.988035319468754</v>
+        <v>-7.448444919472998</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271.72174003163</v>
+        <v>-1446.379539881202</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10289,7 +10289,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93.12145818596696</v>
+        <v>-568.7068262199866</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.7652089728815599</v>
+        <v>-3.318281784517491</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10402,16 +10402,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-13.47365520081823</v>
+        <v>-63.53351984173709</v>
       </c>
       <c r="E7">
-        <v>-2.223364843802997</v>
+        <v>-9.641485297467886</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-271.7237355221691</v>
+        <v>-1657.184089214522</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-86.001925859708</v>
+        <v>-618.5925127187974</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6991637179161942</v>
+        <v>-3.999568019608103</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10540,16 +10540,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-12.38548130846105</v>
+        <v>-76.23109723333843</v>
       </c>
       <c r="E7">
-        <v>-2.031466025056751</v>
+        <v>-11.62100712398706</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-255.9408751563147</v>
+        <v>-1864.257321626595</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82.54211305527679</v>
+        <v>-672.9143115728217</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4246962880995936</v>
+        <v>-4.39572722789507</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10678,16 +10678,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.522271015940394</v>
+        <v>-83.71652025946737</v>
       </c>
       <c r="E7">
-        <v>-1.233982911489485</v>
+        <v>-12.77207367896642</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-211.6594604591115</v>
+        <v>-2028.999573815094</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.40889140481401</v>
+        <v>-728.7529191870143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1400647465576283</v>
+        <v>-4.495067428387666</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10816,16 +10816,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-2.433997379721544</v>
+        <v>-85.67855443293323</v>
       </c>
       <c r="E7">
-        <v>-0.4069673048653715</v>
+        <v>-13.06071314501953</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167.9661549509752</v>
+        <v>-2144.014319491134</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-81.6564848386891</v>
+        <v>-783.4180150677748</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.0204166248915209</v>
+        <v>-4.456236169357424</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -10954,16 +10954,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.3246009435772426</v>
+        <v>-84.86683797326444</v>
       </c>
       <c r="E7">
-        <v>-0.0593218422962048</v>
+        <v>-12.94788637582558</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151.4254113656645</v>
+        <v>-2228.897940406614</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -10979,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-82.65646994793799</v>
+        <v>-834.4767174654153</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.004592646960988624</v>
+        <v>-4.374268047478282</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11092,16 +11092,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.06560407518312347</v>
+        <v>-82.95909996014944</v>
       </c>
       <c r="E7">
-        <v>-0.0133442368750703</v>
+        <v>-12.70972262323345</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-151.6064822141586</v>
+        <v>-2294.401716375364</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11117,7 +11117,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-84.02527673310135</v>
+        <v>-879.7975062700638</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11195,7 +11195,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.01104005552162019</v>
+        <v>-4.277421046131368</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11230,16 +11230,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.1571580563873445</v>
+        <v>-80.42785276224137</v>
       </c>
       <c r="E7">
-        <v>-0.03207760519060558</v>
+        <v>-12.42832731077179</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-155.1823781980188</v>
+        <v>-2341.481274604214</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11255,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-85.55516168257812</v>
+        <v>-917.6068931118359</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.02938699753444751</v>
+        <v>-4.182703947029563</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11368,16 +11368,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.4201204515445778</v>
+        <v>-77.4684644752717</v>
       </c>
       <c r="E7">
-        <v>-0.08538584817814081</v>
+        <v>-12.15312056893638</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-160.4097964331941</v>
+        <v>-2369.534521437048</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-87.14550892558881</v>
+        <v>-946.5449922768872</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001031158597295639</v>
+        <v>-0.001031158645735453</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.0005737400761236222</v>
+        <v>-0.0005737401030756959</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11609,7 +11609,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06354885589293448</v>
+        <v>-4.062464156421862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11644,16 +11644,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.9166056967384181</v>
+        <v>-73.42057152853025</v>
       </c>
       <c r="E7">
-        <v>-0.1846453675578147</v>
+        <v>-11.80375597346296</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-167.7343424322677</v>
+        <v>-2371.441422720432</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-88.73851832914994</v>
+        <v>-965.7123107323218</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.09058369912318956</v>
+        <v>-3.805666610401325</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11782,16 +11782,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.345351453615268</v>
+        <v>-66.18287144993106</v>
       </c>
       <c r="E7">
-        <v>-0.2631968771794592</v>
+        <v>-11.05761386584118</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-174.2827700194574</v>
+        <v>-2328.4123621227</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-90.27161528376347</v>
+        <v>-974.70852846806</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.06872646998034734</v>
+        <v>-3.274975769042562</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -11920,16 +11920,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.177958203737818</v>
+        <v>-53.43529182070765</v>
       </c>
       <c r="E7">
-        <v>-0.1996892647737386</v>
+        <v>-9.515656830023806</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-175.0204300655848</v>
+        <v>-2220.374932075973</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-91.65832810485145</v>
+        <v>-973.6649696808259</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12023,7 +12023,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.07766670592227323</v>
+        <v>-2.665190690809262</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12058,16 +12058,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-1.674986275723392</v>
+        <v>-39.19450775328195</v>
       </c>
       <c r="E7">
-        <v>-0.2256657064949188</v>
+        <v>-7.743886302929599</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-180.9281361109165</v>
+        <v>-2082.678983628358</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-92.80065099332076</v>
+        <v>-963.266561320048</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12161,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.1756222056025283</v>
+        <v>-2.28822575896088</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12196,16 +12196,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-3.840353374815272</v>
+        <v>-29.82756823204977</v>
       </c>
       <c r="E7">
-        <v>-0.5102818335459338</v>
+        <v>-6.648589976669696</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-200.6316132567949</v>
+        <v>-1971.709890269996</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-93.62477218001547</v>
+        <v>-944.7518412503897</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12299,7 +12299,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3120683738927375</v>
+        <v>-2.127771330093862</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12334,16 +12334,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-6.789592943362505</v>
+        <v>-25.67878414723896</v>
       </c>
       <c r="E7">
-        <v>-0.9067351219929767</v>
+        <v>-6.18237911294707</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-226.4199494292308</v>
+        <v>-1892.746487171571</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94.12334756002836</v>
+        <v>-919.8754463434507</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12437,7 +12437,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3860406951581965</v>
+        <v>-2.002303123404537</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12472,16 +12472,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.211481804117515</v>
+        <v>-23.6344254105477</v>
       </c>
       <c r="E7">
-        <v>-1.121666551634718</v>
+        <v>-5.817823011732568</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-239.0881521924126</v>
+        <v>-1822.521484267218</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94.38419737164421</v>
+        <v>-890.8188728708403</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12575,7 +12575,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4107726879294087</v>
+        <v>-1.836069637993015</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12610,16 +12610,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.214587934447518</v>
+        <v>-22.00761669796007</v>
       </c>
       <c r="E7">
-        <v>-1.193526978254695</v>
+        <v>-5.334820720299659</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-240.078115637003</v>
+        <v>-1751.276015061339</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94.58910475993692</v>
+        <v>-860.0432357453636</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4527536862492833</v>
+        <v>-1.673134359632626</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12748,16 +12748,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-8.539830709998315</v>
+        <v>-21.24673877889744</v>
       </c>
       <c r="E7">
-        <v>-1.315505521476259</v>
+        <v>-4.861401585710113</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-244.1732462832823</v>
+        <v>-1687.929989124858</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-94.97732395180697</v>
+        <v>-830.0917045186585</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5078984478901182</v>
+        <v>-1.582716502719223</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -12886,16 +12886,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.431511683743301</v>
+        <v>-22.44494645842499</v>
       </c>
       <c r="E7">
-        <v>-1.475732242146333</v>
+        <v>-4.598686573945102</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-253.4839625425479</v>
+        <v>-1646.477123486505</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -12911,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-95.78316558845773</v>
+        <v>-803.3655518478647</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.002767200005902752</v>
+        <v>-0.002767200404249332</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13049,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-0.001539679215945937</v>
+        <v>-0.001539679437587301</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5579139625220261</v>
+        <v>-1.616859593216748</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13162,16 +13162,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.22895448471764</v>
+        <v>-26.20387227937948</v>
       </c>
       <c r="E7">
-        <v>-1.621055599318349</v>
+        <v>-4.697891562074181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-263.0231908231538</v>
+        <v>-1636.256707872531</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13187,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-97.16907753933685</v>
+        <v>-781.9096040039136</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6024693850404067</v>
+        <v>-1.822889376565958</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13300,16 +13300,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.61973293516606</v>
+        <v>-32.71795450778562</v>
       </c>
       <c r="E7">
-        <v>-1.750514300848093</v>
+        <v>-5.296524606522138</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-270.5741133070402</v>
+        <v>-1662.570120550524</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-99.1785096958375</v>
+        <v>-767.2439557349318</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6306031249206391</v>
+        <v>-2.216006388032002</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13438,16 +13438,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.64284207226575</v>
+        <v>-41.72723270817269</v>
       </c>
       <c r="E7">
-        <v>-1.832258726738521</v>
+        <v>-6.438751859168049</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-276.000284217408</v>
+        <v>-1725.497835295689</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13463,7 +13463,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-101.7244320752618</v>
+        <v>-760.2673135437142</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13541,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.6139620657685515</v>
+        <v>-2.761384628712125</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13576,16 +13576,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-10.23280012343893</v>
+        <v>-52.60550500809388</v>
       </c>
       <c r="E7">
-        <v>-1.783907038253911</v>
+        <v>-8.023384096734608</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-277.7894324876961</v>
+        <v>-1820.077427771478</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13601,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-104.6141588296359</v>
+        <v>-761.2382142086261</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13679,7 +13679,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.5430494180723063</v>
+        <v>-3.386163389139687</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13714,16 +13714,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-9.276538239870105</v>
+        <v>-64.43629303780746</v>
       </c>
       <c r="E7">
-        <v>-1.577865690783692</v>
+        <v>-9.838719750547526</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-274.4342274925407</v>
+        <v>-1937.23535935535</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-107.5974766360731</v>
+        <v>-769.8224969122829</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.4320182048006614</v>
+        <v>-3.992993692937981</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13852,16 +13852,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-7.635501086142962</v>
+        <v>-75.78852122163133</v>
       </c>
       <c r="E7">
-        <v>-1.255257220546663</v>
+        <v>-11.60190498678266</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-264.8051469058209</v>
+        <v>-2062.639283442702</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-110.419507510645</v>
+        <v>-785.185789958097</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -13955,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3120031987706879</v>
+        <v>-4.480531708410171</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -13990,16 +13990,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.613997473699067</v>
+        <v>-84.90524086444199</v>
       </c>
       <c r="E7">
-        <v>-0.90654575140247</v>
+        <v>-13.01847865754923</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-251.4934097523201</v>
+        <v>-2178.784525199708</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-112.8630999737143</v>
+        <v>-806.1096606804143</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2317564985792371</v>
+        <v>-4.766208001334286</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14128,16 +14128,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.172817009371907</v>
+        <v>-90.2465979975243</v>
       </c>
       <c r="E7">
-        <v>-0.6733837023938174</v>
+        <v>-13.84852985781627</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-242.4344571434242</v>
+        <v>-2269.742595455345</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-114.7735656374324</v>
+        <v>-831.1155137434331</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14231,7 +14231,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.2412143252514775</v>
+        <v>-4.850457788139678</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14266,16 +14266,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-4.32284611114429</v>
+        <v>-91.74169196985132</v>
       </c>
       <c r="E7">
-        <v>-0.7008640379192302</v>
+        <v>-14.09332313745545</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-246.0846784321263</v>
+        <v>-2332.098889101346</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14291,7 +14291,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.0660852723745</v>
+        <v>-858.5863482753778</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>-0.3154871441524538</v>
+        <v>-4.808967650567588</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -14404,16 +14404,16 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-5.64329952013826</v>
+        <v>-90.67639194261356</v>
       </c>
       <c r="E7">
-        <v>-0.9166685831439467</v>
+        <v>-13.97277082232125</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-258.7246114385373</v>
+        <v>-2374.147948215349</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14429,7 +14429,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>-116.7202786975066</v>
+        <v>-886.8803707189493</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.006677184554546484</v>
+        <v>-0.006677184554546483</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2422.34114520558</v>
+        <v>-2422.341145205579</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-65.32352415565541</v>
+        <v>-65.32352415565539</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85.03411531090586</v>
+        <v>-85.03411531090588</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98.61333867168926</v>
+        <v>-98.61333867168925</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-340.8747637655812</v>
+        <v>-340.8747637655811</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-552.4533393958641</v>
+        <v>-552.4533393958642</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1981.215483687962</v>
+        <v>-1981.215483687963</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7789,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2590.866457118517</v>
+        <v>-2590.866457118518</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-1159.731842621542</v>
+        <v>-1159.731842621543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-0.001031158645735453</v>
+        <v>-0.001031158645735452</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -14275,7 +14275,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2332.098889101346</v>
+        <v>-2332.098889101345</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
+++ b/Recycling/Met_rec_comp/metrec_Avg_b1.xlsx
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-2422.341145205579</v>
+        <v>-2422.34114520558</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-65.32352415565539</v>
+        <v>-65.32352415565541</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3649,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-85.03411531090588</v>
+        <v>-85.03411531090586</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-98.61333867168925</v>
+        <v>-98.61333867168926</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-282.3596782793865</v>
+        <v>-282.3596782793864</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>-552.4533393958642</v>
+        <v>-552.4533393958641</v>
       </c>
     </row>
     <row r="8" spans="1:7">
